--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD Turbine Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0956D9-1AB0-4DDC-BD49-F610DC48AF22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DF50B-9A74-49E5-8A5D-945CBA454753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="9600" windowHeight="5110" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -19,23 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Database!$C$7:$AW$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="158">
   <si>
     <t>General Facility Details</t>
   </si>
@@ -801,18 +795,6 @@
     <t>CORRECTIONS</t>
   </si>
   <si>
-    <t>Windy Rig Wind Farm</t>
-  </si>
-  <si>
-    <t>Dumfries and Galloway</t>
-  </si>
-  <si>
-    <t>DG7 3</t>
-  </si>
-  <si>
-    <t>Dumfries and Galloway Council</t>
-  </si>
-  <si>
     <t>Banks Renewables</t>
   </si>
   <si>
@@ -849,113 +831,7 @@
     <t>Hagshaw Hill Wind Farm</t>
   </si>
   <si>
-    <t>B1499</t>
-  </si>
-  <si>
-    <t>Statkraft</t>
-  </si>
-  <si>
     <t>Awaiting Construction</t>
-  </si>
-  <si>
-    <t>Windy Rig, Approx 8km NE Of, Carsphairn, Castle Douglas</t>
-  </si>
-  <si>
-    <t>15/P/2/0155</t>
-  </si>
-  <si>
-    <t>AA689</t>
-  </si>
-  <si>
-    <t>RockbySea</t>
-  </si>
-  <si>
-    <t>Coire Na Cloiche Wind Farm</t>
-  </si>
-  <si>
-    <t>Land At Sidhean A'Choin Bhain, Strathrusdale, Alness</t>
-  </si>
-  <si>
-    <t>Highland</t>
-  </si>
-  <si>
-    <t>IV17 0YQ</t>
-  </si>
-  <si>
-    <t>Highland Council</t>
-  </si>
-  <si>
-    <t>12/00479/FUL</t>
-  </si>
-  <si>
-    <t>Kincardine Offshore Wind</t>
-  </si>
-  <si>
-    <t>Kincardine Offshore Windfarm</t>
-  </si>
-  <si>
-    <t>Wind Offshore</t>
-  </si>
-  <si>
-    <t>Kincardine Offshore Windfarm, Laurencekirk, Grampian</t>
-  </si>
-  <si>
-    <t>Offshore</t>
-  </si>
-  <si>
-    <t>Marine Scotland</t>
-  </si>
-  <si>
-    <t>APP/2016/1726</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>MVV Environment</t>
-  </si>
-  <si>
-    <t>Baldovie Industrial Estate (Forties Road)</t>
-  </si>
-  <si>
-    <t>EfW Incineration</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Land At Forties Road Baldovie Industrial Estate Dundee</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>DD4 0NS</t>
-  </si>
-  <si>
-    <t>Dundee City Council</t>
-  </si>
-  <si>
-    <t>16/00916/FULM</t>
-  </si>
-  <si>
-    <t>B1493</t>
-  </si>
-  <si>
-    <t>Infinergy</t>
-  </si>
-  <si>
-    <t>Tom Nan Clach (redesign)</t>
-  </si>
-  <si>
-    <t>Approximately 8km North East Of Tomatin, Drynachan_x000D_
-Nairnshire</t>
-  </si>
-  <si>
-    <t>15/03286/FUL</t>
-  </si>
-  <si>
-    <t>PPA-270-2150</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1758,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="105">
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2184,51 +2060,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="7" xfId="51" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2827,10 +2658,10 @@
       <c r="A15" s="21"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="117"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="9"/>
       <c r="G15" s="21"/>
     </row>
@@ -3399,7 +3230,7 @@
       <c r="D64" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="118" t="s">
+      <c r="E64" s="103" t="s">
         <v>133</v>
       </c>
       <c r="F64" s="9"/>
@@ -3412,7 +3243,7 @@
       <c r="D65" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="119"/>
+      <c r="E65" s="104"/>
       <c r="F65" s="9"/>
       <c r="G65" s="21"/>
     </row>
@@ -3848,33 +3679,36 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BH5707"/>
+  <dimension ref="A1:BH5700"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="U20" sqref="U20"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
   <cols>
     <col min="1" max="2" width="2.7265625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="48" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="43" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" style="43" customWidth="1"/>
     <col min="6" max="6" width="38.453125" style="43" customWidth="1"/>
     <col min="7" max="7" width="39.7265625" style="43" customWidth="1"/>
-    <col min="8" max="10" width="23.26953125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="43" customWidth="1"/>
+    <col min="9" max="10" width="23.26953125" style="43" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.54296875" style="49" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" style="43" customWidth="1"/>
-    <col min="13" max="13" width="13" style="43" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="43" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="50" customWidth="1"/>
-    <col min="17" max="18" width="12.54296875" style="43" customWidth="1"/>
-    <col min="19" max="19" width="13.81640625" style="43" customWidth="1"/>
-    <col min="20" max="21" width="30.26953125" style="43" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" style="43" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="43" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" style="43" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="43" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="50" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="43" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" style="43" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" style="43" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="30.26953125" style="43" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="30.26953125" style="43" customWidth="1"/>
     <col min="22" max="22" width="58.54296875" style="43" customWidth="1"/>
     <col min="23" max="23" width="40.54296875" style="43" customWidth="1"/>
     <col min="24" max="24" width="20.81640625" style="43" customWidth="1"/>
@@ -3882,22 +3716,23 @@
     <col min="26" max="26" width="11.54296875" style="43" customWidth="1"/>
     <col min="27" max="28" width="14.1796875" style="43" customWidth="1"/>
     <col min="29" max="29" width="58.81640625" style="43" customWidth="1"/>
-    <col min="30" max="30" width="17.54296875" style="43" customWidth="1"/>
-    <col min="31" max="32" width="11.7265625" style="43" customWidth="1"/>
-    <col min="33" max="33" width="17" style="43" customWidth="1"/>
-    <col min="34" max="35" width="11.7265625" style="43" customWidth="1"/>
-    <col min="36" max="37" width="16.7265625" style="43" customWidth="1"/>
-    <col min="38" max="38" width="12.26953125" style="43" customWidth="1"/>
-    <col min="39" max="40" width="14.1796875" style="43" customWidth="1"/>
-    <col min="41" max="41" width="14.26953125" style="43" customWidth="1"/>
-    <col min="42" max="42" width="12.54296875" style="43" customWidth="1"/>
-    <col min="43" max="43" width="12.26953125" style="43" customWidth="1"/>
-    <col min="44" max="44" width="12.7265625" style="43" customWidth="1"/>
-    <col min="45" max="45" width="11.7265625" style="43" customWidth="1"/>
-    <col min="46" max="46" width="12" style="43" customWidth="1"/>
-    <col min="47" max="47" width="13.26953125" style="43" customWidth="1"/>
-    <col min="48" max="48" width="15.453125" style="43" customWidth="1"/>
-    <col min="49" max="50" width="13.1796875" style="43" customWidth="1"/>
+    <col min="30" max="30" width="17.54296875" style="43" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="11.7265625" style="43" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="17" style="43" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="11.7265625" style="43" hidden="1" customWidth="1"/>
+    <col min="36" max="37" width="16.7265625" style="43" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="12.26953125" style="43" hidden="1" customWidth="1"/>
+    <col min="39" max="40" width="14.1796875" style="43" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="14.26953125" style="43" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="12.54296875" style="43" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="12.26953125" style="43" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="12.7265625" style="43" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7265625" style="43" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="12" style="43" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="13.26953125" style="43" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="15.453125" style="43" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="13.1796875" style="43" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="13.1796875" style="43" customWidth="1"/>
     <col min="51" max="52" width="2.7265625" style="43" customWidth="1"/>
     <col min="53" max="60" width="0" style="43" hidden="1" customWidth="1"/>
     <col min="61" max="16384" width="9.1796875" style="43" hidden="1"/>
@@ -4384,7 +4219,7 @@
         <v>32</v>
       </c>
       <c r="AX7" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY7" s="9"/>
       <c r="AZ7" s="21"/>
@@ -4547,7 +4382,7 @@
       <c r="A9" s="21"/>
       <c r="B9" s="46"/>
       <c r="C9" s="84" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D9" s="85">
         <v>3301</v>
@@ -4559,7 +4394,7 @@
         <v>97</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H9" s="88" t="s">
         <v>33</v>
@@ -4697,7 +4532,7 @@
       <c r="BC9" s="47"/>
       <c r="BD9" s="47"/>
     </row>
-    <row r="10" spans="1:56" ht="15" thickBot="1">
+    <row r="10" spans="1:56">
       <c r="A10" s="67"/>
       <c r="B10" s="68"/>
       <c r="C10" s="69" t="s">
@@ -4755,7 +4590,7 @@
         <v>78</v>
       </c>
       <c r="U10" s="80" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="V10" s="80" t="s">
         <v>140</v>
@@ -4853,19 +4688,19 @@
       <c r="A11" s="21"/>
       <c r="B11" s="46"/>
       <c r="C11" s="84" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D11" s="85">
-        <v>4430</v>
+        <v>6827</v>
       </c>
       <c r="E11" s="86">
-        <v>43707</v>
+        <v>43641</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G11" s="88" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H11" s="88" t="s">
         <v>33</v>
@@ -4877,7 +4712,7 @@
         <v>117</v>
       </c>
       <c r="K11" s="89">
-        <v>-40.799999999999997</v>
+        <v>-88</v>
       </c>
       <c r="L11" s="88" t="s">
         <v>93</v>
@@ -4892,28 +4727,28 @@
         <v>117</v>
       </c>
       <c r="P11" s="93">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="Q11" s="94">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="R11" s="94">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="S11" s="95" t="s">
         <v>93</v>
       </c>
       <c r="T11" s="95" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="U11" s="95" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="V11" s="95" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="W11" s="95" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="X11" s="95" t="s">
         <v>34</v>
@@ -4922,20 +4757,20 @@
         <v>34</v>
       </c>
       <c r="Z11" s="96" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="AA11" s="94">
-        <v>261700</v>
+        <v>268331</v>
       </c>
       <c r="AB11" s="94">
-        <v>600000</v>
+        <v>616048</v>
       </c>
       <c r="AC11" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="AD11" s="96" t="s">
-        <v>165</v>
-      </c>
       <c r="AE11" s="96" t="s">
         <v>117</v>
       </c>
@@ -4952,7 +4787,7 @@
         <v>117</v>
       </c>
       <c r="AJ11" s="97">
-        <v>42144</v>
+        <v>43607</v>
       </c>
       <c r="AK11" s="97" t="s">
         <v>117</v>
@@ -4972,8 +4807,8 @@
       <c r="AP11" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="AQ11" s="97">
-        <v>43409</v>
+      <c r="AQ11" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="AR11" s="97" t="s">
         <v>117</v>
@@ -4984,8 +4819,8 @@
       <c r="AT11" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="AU11" s="97">
-        <v>45235</v>
+      <c r="AU11" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="AV11" s="97" t="s">
         <v>117</v>
@@ -4994,30 +4829,28 @@
         <v>117</v>
       </c>
       <c r="AX11" s="100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="98"/>
       <c r="AZ11" s="21"/>
-      <c r="BA11" s="63"/>
-      <c r="BB11" s="61"/>
-    </row>
-    <row r="12" spans="1:56">
+    </row>
+    <row r="12" spans="1:56" ht="15" thickBot="1">
       <c r="A12" s="21"/>
       <c r="B12" s="46"/>
       <c r="C12" s="84" t="s">
         <v>117</v>
       </c>
       <c r="D12" s="85">
-        <v>6827</v>
+        <v>6665</v>
       </c>
       <c r="E12" s="86">
         <v>43641</v>
       </c>
       <c r="F12" s="87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G12" s="88" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H12" s="88" t="s">
         <v>33</v>
@@ -5029,7 +4862,7 @@
         <v>117</v>
       </c>
       <c r="K12" s="89">
-        <v>-88</v>
+        <v>-180</v>
       </c>
       <c r="L12" s="88" t="s">
         <v>93</v>
@@ -5044,13 +4877,13 @@
         <v>117</v>
       </c>
       <c r="P12" s="93">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="Q12" s="94">
-        <v>-22</v>
+        <v>-42</v>
       </c>
       <c r="R12" s="94">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="S12" s="95" t="s">
         <v>93</v>
@@ -5062,10 +4895,10 @@
         <v>120</v>
       </c>
       <c r="V12" s="95" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W12" s="95" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="X12" s="95" t="s">
         <v>34</v>
@@ -5077,16 +4910,16 @@
         <v>117</v>
       </c>
       <c r="AA12" s="94">
-        <v>268331</v>
+        <v>142695</v>
       </c>
       <c r="AB12" s="94">
-        <v>616048</v>
+        <v>934003</v>
       </c>
       <c r="AC12" s="95" t="s">
         <v>35</v>
       </c>
       <c r="AD12" s="96" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AE12" s="96" t="s">
         <v>117</v>
@@ -5145,1274 +4978,86 @@
       <c r="AW12" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="AX12" s="100">
+      <c r="AX12" s="98">
         <v>0</v>
       </c>
-      <c r="AY12" s="98"/>
-      <c r="AZ12" s="21"/>
+      <c r="AY12" s="21"/>
     </row>
     <row r="13" spans="1:56" ht="15" thickBot="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="85">
-        <v>6665</v>
-      </c>
-      <c r="E13" s="86">
-        <v>43641</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="89">
-        <v>-180</v>
-      </c>
-      <c r="L13" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="N13" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" s="93">
-        <v>5.6</v>
-      </c>
-      <c r="Q13" s="94">
-        <v>-42</v>
-      </c>
-      <c r="R13" s="94">
-        <v>180</v>
-      </c>
-      <c r="S13" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="T13" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="U13" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="V13" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="W13" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="X13" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y13" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA13" s="94">
-        <v>142695</v>
-      </c>
-      <c r="AB13" s="94">
-        <v>934003</v>
-      </c>
-      <c r="AC13" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD13" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE13" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF13" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG13" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH13" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI13" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ13" s="97">
-        <v>43607</v>
-      </c>
-      <c r="AK13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW13" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX13" s="98">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="21"/>
-    </row>
-    <row r="14" spans="1:56" s="53" customFormat="1" ht="15" thickBot="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="103">
-        <v>3846</v>
-      </c>
-      <c r="E14" s="104">
-        <v>43193</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="107">
-        <v>-29.9</v>
-      </c>
-      <c r="L14" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N14" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="O14" s="110">
-        <v>30</v>
-      </c>
-      <c r="P14" s="111">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q14" s="112">
-        <v>-13</v>
-      </c>
-      <c r="R14" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="S14" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="T14" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="W14" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="X14" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y14" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="114" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA14" s="112">
-        <v>258937</v>
-      </c>
-      <c r="AB14" s="112">
-        <v>878023</v>
-      </c>
-      <c r="AC14" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD14" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE14" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF14" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG14" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH14" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI14" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ14" s="115">
-        <v>40955</v>
-      </c>
-      <c r="AK14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ14" s="115">
-        <v>41389</v>
-      </c>
-      <c r="AR14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV14" s="115">
-        <v>42971</v>
-      </c>
-      <c r="AW14" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="63"/>
-    </row>
-    <row r="15" spans="1:56" s="53" customFormat="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="103">
-        <v>3846</v>
-      </c>
-      <c r="E15" s="104">
-        <v>43193</v>
-      </c>
-      <c r="F15" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="107">
-        <v>29.9</v>
-      </c>
-      <c r="L15" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N15" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="110">
-        <v>30</v>
-      </c>
-      <c r="P15" s="111">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q15" s="112">
-        <v>13</v>
-      </c>
-      <c r="R15" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="S15" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="T15" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="W15" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="X15" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" s="114" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA15" s="112">
-        <v>258937</v>
-      </c>
-      <c r="AB15" s="112">
-        <v>878023</v>
-      </c>
-      <c r="AC15" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD15" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE15" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF15" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG15" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH15" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI15" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ15" s="115">
-        <v>40955</v>
-      </c>
-      <c r="AK15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ15" s="115">
-        <v>41389</v>
-      </c>
-      <c r="AR15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV15" s="115">
-        <v>42971</v>
-      </c>
-      <c r="AW15" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="63"/>
-    </row>
-    <row r="16" spans="1:56" s="53" customFormat="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="103">
-        <v>6136</v>
-      </c>
-      <c r="E16" s="104">
-        <v>43412</v>
-      </c>
-      <c r="F16" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="107">
-        <f>-K17</f>
-        <v>-48.6325</v>
-      </c>
-      <c r="L16" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N16" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="O16" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16" s="111">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="112">
-        <v>-8</v>
-      </c>
-      <c r="R16" s="112">
-        <v>176</v>
-      </c>
-      <c r="S16" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="T16" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="W16" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="X16" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y16" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z16" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA16" s="112">
-        <v>407766</v>
-      </c>
-      <c r="AB16" s="112">
-        <v>789575</v>
-      </c>
-      <c r="AC16" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD16" s="114" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE16" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF16" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG16" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH16" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI16" s="113" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ16" s="115">
-        <v>42537</v>
-      </c>
-      <c r="AK16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ16" s="115">
-        <v>42801</v>
-      </c>
-      <c r="AR16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV16" s="115">
-        <v>43374</v>
-      </c>
-      <c r="AW16" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="21"/>
-    </row>
-    <row r="17" spans="1:52" s="53" customFormat="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="103">
-        <v>6136</v>
-      </c>
-      <c r="E17" s="104">
-        <v>43412</v>
-      </c>
-      <c r="F17" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="107">
-        <v>48.6325</v>
-      </c>
-      <c r="L17" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="O17" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="P17" s="111">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="112">
-        <v>8</v>
-      </c>
-      <c r="R17" s="112">
-        <v>176</v>
-      </c>
-      <c r="S17" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="T17" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="W17" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="X17" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y17" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA17" s="112">
-        <v>407766</v>
-      </c>
-      <c r="AB17" s="112">
-        <v>789575</v>
-      </c>
-      <c r="AC17" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD17" s="114" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE17" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF17" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG17" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH17" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI17" s="113" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ17" s="115">
-        <v>42537</v>
-      </c>
-      <c r="AK17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ17" s="115">
-        <v>42801</v>
-      </c>
-      <c r="AR17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV17" s="115">
-        <v>43374</v>
-      </c>
-      <c r="AW17" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="21"/>
-    </row>
-    <row r="18" spans="1:52" s="53" customFormat="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="103">
-        <v>6171</v>
-      </c>
-      <c r="E18" s="104">
-        <v>43420</v>
-      </c>
-      <c r="F18" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="I18" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="107">
-        <v>-10</v>
-      </c>
-      <c r="L18" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="O18" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="P18" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="R18" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="S18" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="T18" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U18" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="W18" s="113" t="s">
-        <v>187</v>
-      </c>
-      <c r="X18" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y18" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z18" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA18" s="112">
-        <v>344564</v>
-      </c>
-      <c r="AB18" s="112">
-        <v>732870</v>
-      </c>
-      <c r="AC18" s="113" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD18" s="114" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE18" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF18" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG18" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH18" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI18" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ18" s="115">
-        <v>42726</v>
-      </c>
-      <c r="AK18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ18" s="115">
-        <v>42815</v>
-      </c>
-      <c r="AR18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU18" s="115">
-        <v>43911</v>
-      </c>
-      <c r="AV18" s="115">
-        <v>43420</v>
-      </c>
-      <c r="AW18" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="21"/>
-    </row>
-    <row r="19" spans="1:52" s="53" customFormat="1" ht="15" thickBot="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="103">
-        <v>6171</v>
-      </c>
-      <c r="E19" s="104">
-        <v>43420</v>
-      </c>
-      <c r="F19" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="106" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="107">
-        <v>10.5</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="O19" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="P19" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="R19" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="T19" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19" s="113" t="s">
-        <v>186</v>
-      </c>
-      <c r="W19" s="113" t="s">
-        <v>187</v>
-      </c>
-      <c r="X19" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y19" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z19" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA19" s="112">
-        <v>344564</v>
-      </c>
-      <c r="AB19" s="112">
-        <v>732870</v>
-      </c>
-      <c r="AC19" s="113" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD19" s="114" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE19" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF19" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG19" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH19" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI19" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ19" s="115">
-        <v>42726</v>
-      </c>
-      <c r="AK19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ19" s="115">
-        <v>42815</v>
-      </c>
-      <c r="AR19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU19" s="115">
-        <v>43911</v>
-      </c>
-      <c r="AV19" s="115">
-        <v>43420</v>
-      </c>
-      <c r="AW19" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX19" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="21"/>
-    </row>
-    <row r="20" spans="1:52">
-      <c r="A20" s="21"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="103">
-        <v>4420</v>
-      </c>
-      <c r="E20" s="104">
-        <v>43410</v>
-      </c>
-      <c r="F20" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="107">
-        <v>-39</v>
-      </c>
-      <c r="L20" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" s="109" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" s="110">
-        <v>39.1</v>
-      </c>
-      <c r="P20" s="111">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="112">
-        <v>13</v>
-      </c>
-      <c r="R20" s="112">
-        <v>125</v>
-      </c>
-      <c r="S20" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="T20" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" s="113" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="113" t="s">
-        <v>194</v>
-      </c>
-      <c r="W20" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="X20" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y20" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z20" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA20" s="112">
-        <v>286401</v>
-      </c>
-      <c r="AB20" s="112">
-        <v>835189</v>
-      </c>
-      <c r="AC20" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD20" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE20" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF20" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG20" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH20" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI20" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ20" s="115">
-        <v>42243</v>
-      </c>
-      <c r="AK20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL20" s="115">
-        <v>42395</v>
-      </c>
-      <c r="AM20" s="115">
-        <v>42444</v>
-      </c>
-      <c r="AN20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP20" s="115">
-        <v>42671</v>
-      </c>
-      <c r="AQ20" s="115">
-        <v>43214</v>
-      </c>
-      <c r="AR20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV20" s="115">
-        <v>42536</v>
-      </c>
-      <c r="AW20" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="63"/>
-    </row>
-    <row r="21" spans="1:52" ht="15" thickBot="1">
-      <c r="A21" s="62"/>
-    </row>
-    <row r="22" spans="1:52">
-      <c r="A22" s="61"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="63"/>
-      <c r="AM22" s="63"/>
-      <c r="AN22" s="63"/>
-      <c r="AO22" s="63"/>
-      <c r="AP22" s="63"/>
-      <c r="AQ22" s="63"/>
-      <c r="AR22" s="63"/>
-      <c r="AS22" s="63"/>
-      <c r="AT22" s="63"/>
-      <c r="AU22" s="63"/>
-      <c r="AV22" s="63"/>
-      <c r="AW22" s="63"/>
-      <c r="AX22" s="63"/>
-      <c r="AY22" s="63"/>
-    </row>
-    <row r="23" spans="1:52"/>
-    <row r="24" spans="1:52"/>
-    <row r="25" spans="1:52"/>
-    <row r="26" spans="1:52"/>
-    <row r="27" spans="1:52"/>
-    <row r="28" spans="1:52"/>
-    <row r="29" spans="1:52"/>
-    <row r="30" spans="1:52"/>
-    <row r="31" spans="1:52"/>
-    <row r="32" spans="1:52"/>
+      <c r="A13" s="62"/>
+      <c r="AZ13" s="63"/>
+    </row>
+    <row r="14" spans="1:56">
+      <c r="A14" s="61"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="63"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="63"/>
+    </row>
+    <row r="15" spans="1:56"/>
+    <row r="16" spans="1:56"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
     <row r="33"/>
     <row r="34"/>
     <row r="35"/>
@@ -12077,17 +10722,10 @@
     <row r="5694"/>
     <row r="5695"/>
     <row r="5696"/>
-    <row r="5697"/>
-    <row r="5698"/>
-    <row r="5699"/>
+    <row r="5697" hidden="1"/>
+    <row r="5698" hidden="1"/>
+    <row r="5699" hidden="1"/>
     <row r="5700"/>
-    <row r="5701"/>
-    <row r="5702"/>
-    <row r="5703"/>
-    <row r="5704" hidden="1"/>
-    <row r="5705" hidden="1"/>
-    <row r="5706" hidden="1"/>
-    <row r="5707" hidden="1"/>
   </sheetData>
   <autoFilter ref="C7:AW10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD Turbine Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DF50B-9A74-49E5-8A5D-945CBA454753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E487DD-0A81-4F4B-882F-97F891133450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="9600" windowHeight="5110" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
     <sheet name="Database" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Database!$C$7:$AW$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Database!$C$7:$AW$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="176">
   <si>
     <t>General Facility Details</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Scottish Government (S36)</t>
   </si>
   <si>
-    <t>South Lanarkshire</t>
-  </si>
-  <si>
     <t>South Lanarkshire Council</t>
   </si>
   <si>
@@ -774,21 +771,6 @@
 The REPD is updated on a monthly basis, and contains information on all Renewable Electricity (and CHP) projects up to the end of the previous calendar month.</t>
   </si>
   <si>
-    <t>3R Energy</t>
-  </si>
-  <si>
-    <t>Hagshaw Hill (Repowering)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hagshaw Hill Wind Farm, Douglas, Lanark </t>
-  </si>
-  <si>
-    <t>ML11 0RR</t>
-  </si>
-  <si>
-    <t>ECU00000737</t>
-  </si>
-  <si>
     <t>Version: September 2019</t>
   </si>
   <si>
@@ -831,7 +813,79 @@
     <t>Hagshaw Hill Wind Farm</t>
   </si>
   <si>
-    <t>Awaiting Construction</t>
+    <t>Kincardine Offshore Wind</t>
+  </si>
+  <si>
+    <t>Kincardine Offshore Windfarm</t>
+  </si>
+  <si>
+    <t>Wind Offshore</t>
+  </si>
+  <si>
+    <t>Kincardine Offshore Windfarm, Laurencekirk, Grampian</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>Marine Scotland</t>
+  </si>
+  <si>
+    <t>APP/2016/1726</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Simec/Green Highland Renewables</t>
+  </si>
+  <si>
+    <t>Glen Kinglass</t>
+  </si>
+  <si>
+    <t>Small Hydro</t>
+  </si>
+  <si>
+    <t>Allt Hallater Hydro Glen, Kinglass Argyll And Bute, Taynuilt, Strathclyde</t>
+  </si>
+  <si>
+    <t>Argyll and Bute</t>
+  </si>
+  <si>
+    <t>PA35 1JU</t>
+  </si>
+  <si>
+    <t>Argyll and Bute Council</t>
+  </si>
+  <si>
+    <t>18/01258/PP</t>
+  </si>
+  <si>
+    <t>MVV Environment</t>
+  </si>
+  <si>
+    <t>Baldovie Industrial Estate (Forties Road)</t>
+  </si>
+  <si>
+    <t>EfW Incineration</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Land At Forties Road Baldovie Industrial Estate Dundee</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>DD4 0NS</t>
+  </si>
+  <si>
+    <t>Dundee City Council</t>
+  </si>
+  <si>
+    <t>16/00916/FULM</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1812,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="120">
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2073,6 +2127,51 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="7" xfId="51" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2509,7 +2608,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2544,7 +2643,7 @@
       <c r="A3" s="21"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2565,7 +2664,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="10"/>
       <c r="D5" s="41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
@@ -2638,7 +2737,7 @@
       <c r="A13" s="21"/>
       <c r="B13" s="6"/>
       <c r="C13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2659,7 +2758,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
       <c r="D15" s="101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="9"/>
@@ -2678,7 +2777,7 @@
       <c r="A17" s="21"/>
       <c r="B17" s="6"/>
       <c r="C17" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2719,10 +2818,10 @@
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
       <c r="D21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="21"/>
@@ -2732,10 +2831,10 @@
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
       <c r="D22" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>123</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>124</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="21"/>
@@ -2748,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="21"/>
@@ -2761,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="21"/>
@@ -2771,10 +2870,10 @@
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
       <c r="D25" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="21"/>
@@ -2787,7 +2886,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="21"/>
@@ -2800,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="21"/>
@@ -2813,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="21"/>
@@ -2826,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="21"/>
@@ -2839,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="21"/>
@@ -2852,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="21"/>
@@ -2862,10 +2961,10 @@
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
       <c r="D32" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="21"/>
@@ -2875,10 +2974,10 @@
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
       <c r="D33" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="21"/>
@@ -2917,10 +3016,10 @@
       <c r="B37" s="6"/>
       <c r="C37" s="10"/>
       <c r="D37" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="21"/>
@@ -2933,7 +3032,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="21"/>
@@ -2944,7 +3043,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="30"/>
       <c r="E39" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="21"/>
@@ -2955,7 +3054,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="30"/>
       <c r="E40" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="21"/>
@@ -2966,7 +3065,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="30"/>
       <c r="E41" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="21"/>
@@ -2977,7 +3076,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="30"/>
       <c r="E42" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="21"/>
@@ -2988,7 +3087,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="30"/>
       <c r="E43" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="21"/>
@@ -2999,7 +3098,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="30"/>
       <c r="E44" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="21"/>
@@ -3010,7 +3109,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="30"/>
       <c r="E45" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="21"/>
@@ -3021,7 +3120,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="30"/>
       <c r="E46" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="21"/>
@@ -3032,7 +3131,7 @@
       <c r="C47" s="10"/>
       <c r="D47" s="30"/>
       <c r="E47" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="21"/>
@@ -3043,7 +3142,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="30"/>
       <c r="E48" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="21"/>
@@ -3054,7 +3153,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="30"/>
       <c r="E49" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="21"/>
@@ -3065,7 +3164,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="30"/>
       <c r="E50" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="21"/>
@@ -3076,7 +3175,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="30"/>
       <c r="E51" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="21"/>
@@ -3087,7 +3186,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="30"/>
       <c r="E52" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="21"/>
@@ -3098,7 +3197,7 @@
       <c r="C53" s="10"/>
       <c r="D53" s="31"/>
       <c r="E53" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="21"/>
@@ -3108,10 +3207,10 @@
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
       <c r="D54" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="21"/>
@@ -3150,10 +3249,10 @@
       <c r="B58" s="6"/>
       <c r="C58" s="10"/>
       <c r="D58" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="21"/>
@@ -3166,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="21"/>
@@ -3179,7 +3278,7 @@
         <v>15</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="21"/>
@@ -3192,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="21"/>
@@ -3205,7 +3304,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="21"/>
@@ -3218,7 +3317,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="21"/>
@@ -3231,7 +3330,7 @@
         <v>19</v>
       </c>
       <c r="E64" s="103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="21"/>
@@ -3281,10 +3380,10 @@
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
       <c r="D69" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="21"/>
@@ -3297,7 +3396,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="21"/>
@@ -3310,7 +3409,7 @@
         <v>22</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="21"/>
@@ -3323,7 +3422,7 @@
         <v>23</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="21"/>
@@ -3333,10 +3432,10 @@
       <c r="B73" s="6"/>
       <c r="C73" s="10"/>
       <c r="D73" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="21"/>
@@ -3346,10 +3445,10 @@
       <c r="B74" s="6"/>
       <c r="C74" s="10"/>
       <c r="D74" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="21"/>
@@ -3362,7 +3461,7 @@
         <v>24</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="21"/>
@@ -3372,10 +3471,10 @@
       <c r="B76" s="6"/>
       <c r="C76" s="10"/>
       <c r="D76" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="21"/>
@@ -3414,10 +3513,10 @@
       <c r="B80" s="6"/>
       <c r="C80" s="10"/>
       <c r="D80" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="21"/>
@@ -3427,10 +3526,10 @@
       <c r="B81" s="6"/>
       <c r="C81" s="10"/>
       <c r="D81" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="21"/>
@@ -3440,10 +3539,10 @@
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
       <c r="D82" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="21"/>
@@ -3456,7 +3555,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="21"/>
@@ -3469,7 +3568,7 @@
         <v>26</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="21"/>
@@ -3479,10 +3578,10 @@
       <c r="B85" s="6"/>
       <c r="C85" s="10"/>
       <c r="D85" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="21"/>
@@ -3495,7 +3594,7 @@
         <v>27</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="21"/>
@@ -3508,7 +3607,7 @@
         <v>28</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="21"/>
@@ -3521,7 +3620,7 @@
         <v>29</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="21"/>
@@ -3531,10 +3630,10 @@
       <c r="B89" s="6"/>
       <c r="C89" s="10"/>
       <c r="D89" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="21"/>
@@ -3544,10 +3643,10 @@
       <c r="B90" s="6"/>
       <c r="C90" s="10"/>
       <c r="D90" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="21"/>
@@ -3557,10 +3656,10 @@
       <c r="B91" s="6"/>
       <c r="C91" s="10"/>
       <c r="D91" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="21"/>
@@ -3573,7 +3672,7 @@
         <v>30</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="21"/>
@@ -3586,7 +3685,7 @@
         <v>31</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="21"/>
@@ -3599,7 +3698,7 @@
         <v>32</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="21"/>
@@ -3630,39 +3729,7 @@
     <row r="102" ht="14.5" hidden="1"/>
     <row r="103" ht="14.5" hidden="1"/>
     <row r="104" ht="14.5" hidden="1"/>
-    <row r="105" ht="15" hidden="1" customHeight="1"/>
-    <row r="106" ht="15" hidden="1" customHeight="1"/>
-    <row r="107" ht="15" hidden="1" customHeight="1"/>
-    <row r="108" ht="15" hidden="1" customHeight="1"/>
-    <row r="109" ht="15" hidden="1" customHeight="1"/>
-    <row r="110" ht="15" hidden="1" customHeight="1"/>
-    <row r="111" ht="15" hidden="1" customHeight="1"/>
-    <row r="112" ht="15" hidden="1" customHeight="1"/>
-    <row r="113" ht="15" hidden="1" customHeight="1"/>
-    <row r="114" ht="15" hidden="1" customHeight="1"/>
-    <row r="115" ht="15" hidden="1" customHeight="1"/>
-    <row r="116" ht="15" hidden="1" customHeight="1"/>
-    <row r="117" ht="15" hidden="1" customHeight="1"/>
-    <row r="118" ht="15" hidden="1" customHeight="1"/>
     <row r="119" ht="14.5" hidden="1"/>
-    <row r="120" ht="15" hidden="1" customHeight="1"/>
-    <row r="121" ht="15" hidden="1" customHeight="1"/>
-    <row r="122" ht="15" hidden="1" customHeight="1"/>
-    <row r="123" ht="15" hidden="1" customHeight="1"/>
-    <row r="124" ht="15" hidden="1" customHeight="1"/>
-    <row r="125" ht="15" hidden="1" customHeight="1"/>
-    <row r="126" ht="15" hidden="1" customHeight="1"/>
-    <row r="127" ht="15" hidden="1" customHeight="1"/>
-    <row r="128" ht="15" hidden="1" customHeight="1"/>
-    <row r="129" ht="15" hidden="1" customHeight="1"/>
-    <row r="130" ht="15" hidden="1" customHeight="1"/>
-    <row r="131" ht="15" hidden="1" customHeight="1"/>
-    <row r="132" ht="15" hidden="1" customHeight="1"/>
-    <row r="133" ht="15" hidden="1" customHeight="1"/>
-    <row r="134" ht="15" hidden="1" customHeight="1"/>
-    <row r="135" ht="15" hidden="1" customHeight="1"/>
-    <row r="136" ht="15" hidden="1" customHeight="1"/>
-    <row r="137" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D15:E15"/>
@@ -3679,13 +3746,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BH5700"/>
+  <dimension ref="A1:BH5708"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
@@ -3850,7 +3917,7 @@
       <c r="A3" s="21"/>
       <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3992,7 +4059,7 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
@@ -4001,7 +4068,7 @@
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK5" s="12"/>
       <c r="AL5" s="12"/>
@@ -4078,16 +4145,16 @@
       <c r="A7" s="21"/>
       <c r="B7" s="46"/>
       <c r="C7" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>76</v>
-      </c>
       <c r="E7" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
@@ -4096,49 +4163,49 @@
         <v>8</v>
       </c>
       <c r="I7" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>136</v>
-      </c>
       <c r="K7" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P7" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="25" t="s">
-        <v>101</v>
-      </c>
       <c r="R7" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V7" s="25" t="s">
         <v>14</v>
       </c>
       <c r="W7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X7" s="25" t="s">
         <v>16</v>
@@ -4156,7 +4223,7 @@
         <v>20</v>
       </c>
       <c r="AC7" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD7" s="25" t="s">
         <v>22</v>
@@ -4165,22 +4232,22 @@
         <v>23</v>
       </c>
       <c r="AF7" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG7" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AI7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ7" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK7" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL7" s="25" t="s">
         <v>25</v>
@@ -4189,7 +4256,7 @@
         <v>26</v>
       </c>
       <c r="AN7" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AO7" s="25" t="s">
         <v>27</v>
@@ -4201,16 +4268,16 @@
         <v>29</v>
       </c>
       <c r="AR7" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT7" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AT7" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="AU7" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AV7" s="25" t="s">
         <v>31</v>
@@ -4219,7 +4286,7 @@
         <v>32</v>
       </c>
       <c r="AX7" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AY7" s="9"/>
       <c r="AZ7" s="21"/>
@@ -4228,7 +4295,7 @@
       <c r="A8" s="67"/>
       <c r="B8" s="68"/>
       <c r="C8" s="69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="70">
         <v>3593</v>
@@ -4237,34 +4304,34 @@
         <v>40644</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K8" s="74">
         <v>0</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M8" s="75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N8" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O8" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P8" s="78">
         <v>0.6</v>
@@ -4273,10 +4340,10 @@
         <v>-6</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S8" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T8" s="80" t="s">
         <v>32</v>
@@ -4285,10 +4352,10 @@
         <v>32</v>
       </c>
       <c r="V8" s="80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W8" s="80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X8" s="80" t="s">
         <v>34</v>
@@ -4297,7 +4364,7 @@
         <v>34</v>
       </c>
       <c r="Z8" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA8" s="79">
         <v>278965</v>
@@ -4306,64 +4373,64 @@
         <v>630750</v>
       </c>
       <c r="AC8" s="80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD8" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE8" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF8" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG8" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH8" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI8" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ8" s="82">
         <v>34467</v>
       </c>
       <c r="AK8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AM8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AN8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ8" s="82">
         <v>34640</v>
       </c>
       <c r="AR8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AS8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AV8" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AW8" s="82">
         <v>35004</v>
@@ -4382,7 +4449,7 @@
       <c r="A9" s="21"/>
       <c r="B9" s="46"/>
       <c r="C9" s="84" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D9" s="85">
         <v>3301</v>
@@ -4391,34 +4458,34 @@
         <v>40644</v>
       </c>
       <c r="F9" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H9" s="88" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="89">
         <v>0</v>
       </c>
       <c r="L9" s="88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O9" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P9" s="93">
         <v>0.6</v>
@@ -4427,10 +4494,10 @@
         <v>-7</v>
       </c>
       <c r="R9" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S9" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T9" s="95" t="s">
         <v>32</v>
@@ -4439,10 +4506,10 @@
         <v>32</v>
       </c>
       <c r="V9" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W9" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X9" s="95" t="s">
         <v>34</v>
@@ -4451,7 +4518,7 @@
         <v>34</v>
       </c>
       <c r="Z9" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA9" s="94">
         <v>278980</v>
@@ -4460,64 +4527,64 @@
         <v>630740</v>
       </c>
       <c r="AC9" s="95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD9" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE9" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF9" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG9" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH9" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI9" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ9" s="97">
         <v>34467</v>
       </c>
       <c r="AK9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AM9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AN9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ9" s="97">
         <v>34640</v>
       </c>
       <c r="AR9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AS9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AV9" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AW9" s="97">
         <v>35004</v>
@@ -4533,222 +4600,220 @@
       <c r="BD9" s="47"/>
     </row>
     <row r="10" spans="1:56">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="70">
-        <v>7456</v>
-      </c>
-      <c r="E10" s="71">
-        <v>43647</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="73" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="85">
+        <v>6827</v>
+      </c>
+      <c r="E10" s="86">
+        <v>43641</v>
+      </c>
+      <c r="F10" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="G10" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="74">
-        <v>-15.6</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q10" s="79">
-        <v>-13</v>
-      </c>
-      <c r="R10" s="79">
-        <v>200</v>
-      </c>
-      <c r="S10" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="V10" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="W10" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="80" t="s">
+      <c r="I10" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="89">
+        <v>-88</v>
+      </c>
+      <c r="L10" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="93">
+        <v>4.8</v>
+      </c>
+      <c r="Q10" s="94">
+        <v>-22</v>
+      </c>
+      <c r="R10" s="94">
+        <v>220</v>
+      </c>
+      <c r="S10" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="V10" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="W10" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="Y10" s="80" t="s">
+      <c r="Y10" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="Z10" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA10" s="79">
-        <v>282089</v>
-      </c>
-      <c r="AB10" s="79">
-        <v>631116</v>
-      </c>
-      <c r="AC10" s="80" t="s">
+      <c r="Z10" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA10" s="94">
+        <v>268331</v>
+      </c>
+      <c r="AB10" s="94">
+        <v>616048</v>
+      </c>
+      <c r="AC10" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AD10" s="81" t="s">
+      <c r="AD10" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="AE10" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF10" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG10" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH10" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI10" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ10" s="82">
-        <v>43437</v>
-      </c>
-      <c r="AK10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX10" s="99">
+      <c r="AE10" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF10" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG10" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH10" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI10" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ10" s="97">
+        <v>43607</v>
+      </c>
+      <c r="AK10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX10" s="100">
         <v>0</v>
       </c>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="67"/>
-      <c r="BA10" s="47"/>
-      <c r="BB10" s="47"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="21"/>
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="21"/>
       <c r="B11" s="46"/>
       <c r="C11" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="85">
-        <v>6827</v>
+        <v>6665</v>
       </c>
       <c r="E11" s="86">
         <v>43641</v>
       </c>
       <c r="F11" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="88" t="s">
         <v>145</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>146</v>
       </c>
       <c r="H11" s="88" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J11" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" s="89">
-        <v>-88</v>
+        <v>-180</v>
       </c>
       <c r="L11" s="88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M11" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N11" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O11" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P11" s="93">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="Q11" s="94">
-        <v>-22</v>
+        <v>-42</v>
       </c>
       <c r="R11" s="94">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="S11" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T11" s="95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U11" s="95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V11" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="W11" s="95" t="s">
         <v>147</v>
-      </c>
-      <c r="W11" s="95" t="s">
-        <v>96</v>
       </c>
       <c r="X11" s="95" t="s">
         <v>34</v>
@@ -4757,13 +4822,13 @@
         <v>34</v>
       </c>
       <c r="Z11" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA11" s="94">
-        <v>268331</v>
+        <v>142695</v>
       </c>
       <c r="AB11" s="94">
-        <v>616048</v>
+        <v>934003</v>
       </c>
       <c r="AC11" s="95" t="s">
         <v>35</v>
@@ -4772,292 +4837,1032 @@
         <v>148</v>
       </c>
       <c r="AE11" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF11" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG11" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AH11" s="96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI11" s="95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ11" s="97">
         <v>43607</v>
       </c>
       <c r="AK11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AL11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AM11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AN11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AR11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AS11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AV11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AW11" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX11" s="100">
+        <v>116</v>
+      </c>
+      <c r="AX11" s="98">
         <v>0</v>
       </c>
-      <c r="AY11" s="98"/>
-      <c r="AZ11" s="21"/>
+      <c r="AY11" s="21"/>
     </row>
-    <row r="12" spans="1:56" ht="15" thickBot="1">
+    <row r="12" spans="1:56">
       <c r="A12" s="21"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="85">
-        <v>6665</v>
-      </c>
-      <c r="E12" s="86">
-        <v>43641</v>
-      </c>
-      <c r="F12" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="88" t="s">
+      <c r="B12" s="105"/>
+      <c r="C12" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="107">
+        <v>6136</v>
+      </c>
+      <c r="E12" s="108">
+        <v>44077</v>
+      </c>
+      <c r="F12" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="89">
-        <v>-180</v>
-      </c>
-      <c r="L12" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" s="93">
-        <v>5.6</v>
-      </c>
-      <c r="Q12" s="94">
-        <v>-42</v>
-      </c>
-      <c r="R12" s="94">
-        <v>180</v>
-      </c>
-      <c r="S12" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="U12" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="V12" s="95" t="s">
+      <c r="G12" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="W12" s="95" t="s">
+      <c r="H12" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="X12" s="95" t="s">
+      <c r="I12" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="111">
+        <v>-2</v>
+      </c>
+      <c r="L12" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="115">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="116">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="116">
+        <v>176</v>
+      </c>
+      <c r="S12" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="W12" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="X12" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y12" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="Y12" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA12" s="94">
-        <v>142695</v>
-      </c>
-      <c r="AB12" s="94">
-        <v>934003</v>
-      </c>
-      <c r="AC12" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD12" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE12" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF12" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG12" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH12" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI12" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ12" s="97">
-        <v>43607</v>
-      </c>
-      <c r="AK12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW12" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX12" s="98">
+      <c r="Z12" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA12" s="116">
+        <v>407766</v>
+      </c>
+      <c r="AB12" s="116">
+        <v>789575</v>
+      </c>
+      <c r="AC12" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD12" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE12" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH12" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI12" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ12" s="119">
+        <v>42537</v>
+      </c>
+      <c r="AK12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ12" s="119">
+        <v>42801</v>
+      </c>
+      <c r="AR12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV12" s="119">
+        <v>43374</v>
+      </c>
+      <c r="AW12" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX12" s="9">
         <v>0</v>
       </c>
       <c r="AY12" s="21"/>
     </row>
     <row r="13" spans="1:56" ht="15" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="AZ13" s="63"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="107">
+        <v>6136</v>
+      </c>
+      <c r="E13" s="108">
+        <v>44077</v>
+      </c>
+      <c r="F13" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="111">
+        <v>2</v>
+      </c>
+      <c r="L13" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="115">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="116">
+        <v>1</v>
+      </c>
+      <c r="R13" s="116">
+        <v>176</v>
+      </c>
+      <c r="S13" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="T13" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="W13" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" s="117" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y13" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA13" s="116">
+        <v>407766</v>
+      </c>
+      <c r="AB13" s="116">
+        <v>789575</v>
+      </c>
+      <c r="AC13" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD13" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE13" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF13" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG13" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH13" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI13" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ13" s="119">
+        <v>42537</v>
+      </c>
+      <c r="AK13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ13" s="119">
+        <v>42801</v>
+      </c>
+      <c r="AR13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV13" s="119">
+        <v>43374</v>
+      </c>
+      <c r="AW13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="21"/>
     </row>
-    <row r="14" spans="1:56">
-      <c r="A14" s="61"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="63"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="63"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="63"/>
-      <c r="AS14" s="63"/>
-      <c r="AT14" s="63"/>
-      <c r="AU14" s="63"/>
-      <c r="AV14" s="63"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="63"/>
+    <row r="14" spans="1:56" ht="15" thickBot="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="107">
+        <v>6687</v>
+      </c>
+      <c r="E14" s="108">
+        <v>43950</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="111">
+        <v>-0.96</v>
+      </c>
+      <c r="L14" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="W14" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="X14" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z14" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA14" s="116">
+        <v>215301</v>
+      </c>
+      <c r="AB14" s="116">
+        <v>737604</v>
+      </c>
+      <c r="AC14" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD14" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE14" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF14" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG14" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH14" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI14" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ14" s="119">
+        <v>43313</v>
+      </c>
+      <c r="AK14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ14" s="119">
+        <v>43552</v>
+      </c>
+      <c r="AR14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU14" s="119">
+        <v>44648</v>
+      </c>
+      <c r="AV14" s="119">
+        <v>43800</v>
+      </c>
+      <c r="AW14" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="63"/>
     </row>
-    <row r="15" spans="1:56"/>
-    <row r="16" spans="1:56"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
+    <row r="15" spans="1:56">
+      <c r="A15" s="21"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="107">
+        <v>6687</v>
+      </c>
+      <c r="E15" s="108">
+        <v>43950</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="111">
+        <v>0.96</v>
+      </c>
+      <c r="L15" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="W15" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA15" s="116">
+        <v>215301</v>
+      </c>
+      <c r="AB15" s="116">
+        <v>737604</v>
+      </c>
+      <c r="AC15" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD15" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE15" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF15" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG15" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH15" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI15" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ15" s="119">
+        <v>43313</v>
+      </c>
+      <c r="AK15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ15" s="119">
+        <v>43552</v>
+      </c>
+      <c r="AR15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU15" s="119">
+        <v>44648</v>
+      </c>
+      <c r="AV15" s="119">
+        <v>43800</v>
+      </c>
+      <c r="AW15" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="63"/>
+    </row>
+    <row r="16" spans="1:56">
+      <c r="A16" s="21"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="107">
+        <v>6171</v>
+      </c>
+      <c r="E16" s="108">
+        <v>43950</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="111">
+        <v>-10</v>
+      </c>
+      <c r="L16" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="W16" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y16" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA16" s="116">
+        <v>344564</v>
+      </c>
+      <c r="AB16" s="116">
+        <v>732870</v>
+      </c>
+      <c r="AC16" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD16" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE16" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF16" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG16" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH16" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI16" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ16" s="119">
+        <v>42726</v>
+      </c>
+      <c r="AK16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ16" s="119">
+        <v>42815</v>
+      </c>
+      <c r="AR16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU16" s="119">
+        <v>43911</v>
+      </c>
+      <c r="AV16" s="119">
+        <v>43420</v>
+      </c>
+      <c r="AW16" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AY16" s="21"/>
+    </row>
+    <row r="17" spans="1:51">
+      <c r="A17" s="21"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="107">
+        <v>6171</v>
+      </c>
+      <c r="E17" s="108">
+        <v>43950</v>
+      </c>
+      <c r="F17" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="111">
+        <v>10.5</v>
+      </c>
+      <c r="L17" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="T17" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="W17" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA17" s="116">
+        <v>344564</v>
+      </c>
+      <c r="AB17" s="116">
+        <v>732870</v>
+      </c>
+      <c r="AC17" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD17" s="118" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE17" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF17" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG17" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH17" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI17" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ17" s="119">
+        <v>42726</v>
+      </c>
+      <c r="AK17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ17" s="119">
+        <v>42815</v>
+      </c>
+      <c r="AR17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU17" s="119">
+        <v>43911</v>
+      </c>
+      <c r="AV17" s="119">
+        <v>43420</v>
+      </c>
+      <c r="AW17" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="21"/>
+    </row>
+    <row r="18" spans="1:51" ht="15" thickBot="1">
+      <c r="A18" s="62"/>
+    </row>
+    <row r="19" spans="1:51">
+      <c r="A19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="63"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="63"/>
+    </row>
+    <row r="20" spans="1:51"/>
+    <row r="21" spans="1:51"/>
+    <row r="22" spans="1:51"/>
+    <row r="23" spans="1:51"/>
+    <row r="24" spans="1:51"/>
+    <row r="25" spans="1:51"/>
+    <row r="26" spans="1:51"/>
+    <row r="27" spans="1:51"/>
+    <row r="28" spans="1:51"/>
+    <row r="29" spans="1:51"/>
+    <row r="30" spans="1:51"/>
+    <row r="31" spans="1:51"/>
+    <row r="32" spans="1:51"/>
     <row r="33"/>
     <row r="34"/>
     <row r="35"/>
@@ -10722,12 +11527,14 @@
     <row r="5694"/>
     <row r="5695"/>
     <row r="5696"/>
-    <row r="5697" hidden="1"/>
-    <row r="5698" hidden="1"/>
-    <row r="5699" hidden="1"/>
-    <row r="5700"/>
+    <row r="5697"/>
+    <row r="5698"/>
+    <row r="5702"/>
+    <row r="5703"/>
+    <row r="5707"/>
+    <row r="5708"/>
   </sheetData>
-  <autoFilter ref="C7:AW10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C7:AW9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\Corrections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E487DD-0A81-4F4B-882F-97F891133450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B0669-6138-442F-BE54-F192A5A912C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="172">
   <si>
     <t>General Facility Details</t>
   </si>
@@ -775,18 +775,6 @@
   </si>
   <si>
     <t>CORRECTIONS</t>
-  </si>
-  <si>
-    <t>Banks Renewables</t>
-  </si>
-  <si>
-    <t>Lethans Wind Farm (resubmission)</t>
-  </si>
-  <si>
-    <t>Land to the north east of New Cumnock, Lethans, East Ayrshire</t>
-  </si>
-  <si>
-    <t>ECU00001856</t>
   </si>
   <si>
     <t>Sites</t>
@@ -1812,7 +1800,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2113,7 +2101,49 @@
     <xf numFmtId="2" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="7" xfId="51" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2127,51 +2157,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="7" xfId="51" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2757,10 +2742,10 @@
       <c r="A15" s="21"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="102"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="9"/>
       <c r="G15" s="21"/>
     </row>
@@ -3329,7 +3314,7 @@
       <c r="D64" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="103" t="s">
+      <c r="E64" s="117" t="s">
         <v>132</v>
       </c>
       <c r="F64" s="9"/>
@@ -3342,7 +3327,7 @@
       <c r="D65" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="104"/>
+      <c r="E65" s="118"/>
       <c r="F65" s="9"/>
       <c r="G65" s="21"/>
     </row>
@@ -3752,7 +3737,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AX18" sqref="AX18"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
@@ -4286,7 +4271,7 @@
         <v>32</v>
       </c>
       <c r="AX7" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AY7" s="9"/>
       <c r="AZ7" s="21"/>
@@ -4449,7 +4434,7 @@
       <c r="A9" s="21"/>
       <c r="B9" s="46"/>
       <c r="C9" s="84" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="85">
         <v>3301</v>
@@ -4461,7 +4446,7 @@
         <v>96</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H9" s="88" t="s">
         <v>33</v>
@@ -4606,16 +4591,16 @@
         <v>116</v>
       </c>
       <c r="D10" s="85">
-        <v>6827</v>
+        <v>6665</v>
       </c>
       <c r="E10" s="86">
         <v>43641</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H10" s="88" t="s">
         <v>33</v>
@@ -4627,7 +4612,7 @@
         <v>116</v>
       </c>
       <c r="K10" s="89">
-        <v>-88</v>
+        <v>-180</v>
       </c>
       <c r="L10" s="88" t="s">
         <v>92</v>
@@ -4642,13 +4627,13 @@
         <v>116</v>
       </c>
       <c r="P10" s="93">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="Q10" s="94">
-        <v>-22</v>
+        <v>-42</v>
       </c>
       <c r="R10" s="94">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="S10" s="95" t="s">
         <v>92</v>
@@ -4660,10 +4645,10 @@
         <v>119</v>
       </c>
       <c r="V10" s="95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W10" s="95" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="X10" s="95" t="s">
         <v>34</v>
@@ -4675,16 +4660,16 @@
         <v>116</v>
       </c>
       <c r="AA10" s="94">
-        <v>268331</v>
+        <v>142695</v>
       </c>
       <c r="AB10" s="94">
-        <v>616048</v>
+        <v>934003</v>
       </c>
       <c r="AC10" s="95" t="s">
         <v>35</v>
       </c>
       <c r="AD10" s="96" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE10" s="96" t="s">
         <v>116</v>
@@ -4743,303 +4728,302 @@
       <c r="AW10" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="AX10" s="100">
+      <c r="AX10" s="98">
         <v>0</v>
       </c>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="21"/>
+      <c r="AY10" s="21"/>
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="21"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="85">
-        <v>6665</v>
-      </c>
-      <c r="E11" s="86">
-        <v>43641</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="89">
-        <v>-180</v>
-      </c>
-      <c r="L11" s="88" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="102">
+        <v>6136</v>
+      </c>
+      <c r="E11" s="103">
+        <v>44077</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="106">
+        <v>-2</v>
+      </c>
+      <c r="L11" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="O11" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="93">
-        <v>5.6</v>
-      </c>
-      <c r="Q11" s="94">
-        <v>-42</v>
-      </c>
-      <c r="R11" s="94">
-        <v>180</v>
-      </c>
-      <c r="S11" s="95" t="s">
+      <c r="M11" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="110">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="111">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="111">
+        <v>176</v>
+      </c>
+      <c r="S11" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="U11" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="V11" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="W11" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="X11" s="95" t="s">
+      <c r="T11" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="W11" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="X11" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y11" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="Y11" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA11" s="94">
-        <v>142695</v>
-      </c>
-      <c r="AB11" s="94">
-        <v>934003</v>
-      </c>
-      <c r="AC11" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD11" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE11" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF11" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG11" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH11" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI11" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ11" s="97">
-        <v>43607</v>
-      </c>
-      <c r="AK11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW11" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX11" s="98">
+      <c r="Z11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA11" s="111">
+        <v>407766</v>
+      </c>
+      <c r="AB11" s="111">
+        <v>789575</v>
+      </c>
+      <c r="AC11" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD11" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF11" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI11" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ11" s="114">
+        <v>42537</v>
+      </c>
+      <c r="AK11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ11" s="114">
+        <v>42801</v>
+      </c>
+      <c r="AR11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV11" s="114">
+        <v>43374</v>
+      </c>
+      <c r="AW11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX11" s="9">
         <v>0</v>
       </c>
       <c r="AY11" s="21"/>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:56" ht="15" thickBot="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="107">
+      <c r="B12" s="100"/>
+      <c r="C12" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="102">
         <v>6136</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="103">
         <v>44077</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="106">
+        <v>2</v>
+      </c>
+      <c r="L12" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="110">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="111">
+        <v>1</v>
+      </c>
+      <c r="R12" s="111">
+        <v>176</v>
+      </c>
+      <c r="S12" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="W12" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="X12" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y12" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA12" s="111">
+        <v>407766</v>
+      </c>
+      <c r="AB12" s="111">
+        <v>789575</v>
+      </c>
+      <c r="AC12" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="AD12" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="111">
-        <v>-2</v>
-      </c>
-      <c r="L12" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" s="115">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="116">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="116">
-        <v>176</v>
-      </c>
-      <c r="S12" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="117" t="s">
+      <c r="AE12" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH12" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI12" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="W12" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="X12" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y12" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA12" s="116">
-        <v>407766</v>
-      </c>
-      <c r="AB12" s="116">
-        <v>789575</v>
-      </c>
-      <c r="AC12" s="117" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD12" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE12" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF12" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG12" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH12" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI12" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ12" s="119">
+      <c r="AJ12" s="114">
         <v>42537</v>
       </c>
-      <c r="AK12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ12" s="119">
+      <c r="AK12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ12" s="114">
         <v>42801</v>
       </c>
-      <c r="AR12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU12" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV12" s="119">
+      <c r="AR12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU12" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV12" s="114">
         <v>43374</v>
       </c>
-      <c r="AW12" s="119" t="s">
+      <c r="AW12" s="114" t="s">
         <v>116</v>
       </c>
       <c r="AX12" s="9">
@@ -5049,807 +5033,659 @@
     </row>
     <row r="13" spans="1:56" ht="15" thickBot="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="107">
-        <v>6136</v>
-      </c>
-      <c r="E13" s="108">
-        <v>44077</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="111">
-        <v>2</v>
-      </c>
-      <c r="L13" s="110" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="102">
+        <v>6687</v>
+      </c>
+      <c r="E13" s="103">
+        <v>43950</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="106">
+        <v>-0.96</v>
+      </c>
+      <c r="L13" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="115">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="116">
+      <c r="M13" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="T13" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="X13" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA13" s="111">
+        <v>215301</v>
+      </c>
+      <c r="AB13" s="111">
+        <v>737604</v>
+      </c>
+      <c r="AC13" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD13" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE13" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF13" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG13" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH13" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI13" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ13" s="114">
+        <v>43313</v>
+      </c>
+      <c r="AK13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ13" s="114">
+        <v>43552</v>
+      </c>
+      <c r="AR13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU13" s="114">
+        <v>44648</v>
+      </c>
+      <c r="AV13" s="114">
+        <v>43800</v>
+      </c>
+      <c r="AW13" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="63"/>
+    </row>
+    <row r="14" spans="1:56">
+      <c r="A14" s="21"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="102">
+        <v>6687</v>
+      </c>
+      <c r="E14" s="103">
+        <v>43950</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="106">
+        <v>0.96</v>
+      </c>
+      <c r="L14" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="T14" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z14" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA14" s="111">
+        <v>215301</v>
+      </c>
+      <c r="AB14" s="111">
+        <v>737604</v>
+      </c>
+      <c r="AC14" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD14" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE14" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF14" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG14" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH14" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI14" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ14" s="114">
+        <v>43313</v>
+      </c>
+      <c r="AK14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ14" s="114">
+        <v>43552</v>
+      </c>
+      <c r="AR14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU14" s="114">
+        <v>44648</v>
+      </c>
+      <c r="AV14" s="114">
+        <v>43800</v>
+      </c>
+      <c r="AW14" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX14" s="9">
         <v>1</v>
-      </c>
-      <c r="R13" s="116">
-        <v>176</v>
-      </c>
-      <c r="S13" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="T13" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="117" t="s">
-        <v>154</v>
-      </c>
-      <c r="W13" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="X13" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y13" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA13" s="116">
-        <v>407766</v>
-      </c>
-      <c r="AB13" s="116">
-        <v>789575</v>
-      </c>
-      <c r="AC13" s="117" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD13" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE13" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF13" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG13" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH13" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI13" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ13" s="119">
-        <v>42537</v>
-      </c>
-      <c r="AK13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ13" s="119">
-        <v>42801</v>
-      </c>
-      <c r="AR13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV13" s="119">
-        <v>43374</v>
-      </c>
-      <c r="AW13" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="21"/>
-    </row>
-    <row r="14" spans="1:56" ht="15" thickBot="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="107">
-        <v>6687</v>
-      </c>
-      <c r="E14" s="108">
-        <v>43950</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="111">
-        <v>-0.96</v>
-      </c>
-      <c r="L14" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="S14" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="T14" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="W14" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="X14" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y14" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA14" s="116">
-        <v>215301</v>
-      </c>
-      <c r="AB14" s="116">
-        <v>737604</v>
-      </c>
-      <c r="AC14" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD14" s="118" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE14" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF14" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG14" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH14" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI14" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ14" s="119">
-        <v>43313</v>
-      </c>
-      <c r="AK14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ14" s="119">
-        <v>43552</v>
-      </c>
-      <c r="AR14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU14" s="119">
-        <v>44648</v>
-      </c>
-      <c r="AV14" s="119">
-        <v>43800</v>
-      </c>
-      <c r="AW14" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX14" s="9">
-        <v>-1</v>
       </c>
       <c r="AY14" s="21"/>
       <c r="AZ14" s="63"/>
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="21"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="107">
-        <v>6687</v>
-      </c>
-      <c r="E15" s="108">
+      <c r="B15" s="100"/>
+      <c r="C15" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="102">
+        <v>6171</v>
+      </c>
+      <c r="E15" s="103">
         <v>43950</v>
       </c>
-      <c r="F15" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="110" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="111">
-        <v>0.96</v>
-      </c>
-      <c r="L15" s="110" t="s">
+      <c r="F15" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="106">
+        <v>-10</v>
+      </c>
+      <c r="L15" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" s="115" t="s">
+      <c r="Q15" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="Q15" s="116" t="s">
+      <c r="R15" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="R15" s="116" t="s">
+      <c r="S15" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="S15" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="T15" s="117" t="s">
+      <c r="T15" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="W15" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="X15" s="117" t="s">
+      <c r="U15" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="112" t="s">
+        <v>167</v>
+      </c>
+      <c r="W15" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="Y15" s="117" t="s">
+      <c r="Y15" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="Z15" s="118" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA15" s="116">
-        <v>215301</v>
-      </c>
-      <c r="AB15" s="116">
-        <v>737604</v>
-      </c>
-      <c r="AC15" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD15" s="118" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE15" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF15" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG15" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH15" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI15" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ15" s="119">
-        <v>43313</v>
-      </c>
-      <c r="AK15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ15" s="119">
-        <v>43552</v>
-      </c>
-      <c r="AR15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT15" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU15" s="119">
-        <v>44648</v>
-      </c>
-      <c r="AV15" s="119">
-        <v>43800</v>
-      </c>
-      <c r="AW15" s="119" t="s">
+      <c r="Z15" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA15" s="111">
+        <v>344564</v>
+      </c>
+      <c r="AB15" s="111">
+        <v>732870</v>
+      </c>
+      <c r="AC15" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD15" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE15" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF15" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG15" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH15" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI15" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ15" s="114">
+        <v>42726</v>
+      </c>
+      <c r="AK15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ15" s="114">
+        <v>42815</v>
+      </c>
+      <c r="AR15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT15" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU15" s="114">
+        <v>43911</v>
+      </c>
+      <c r="AV15" s="114">
+        <v>43420</v>
+      </c>
+      <c r="AW15" s="114" t="s">
         <v>116</v>
       </c>
       <c r="AX15" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY15" s="21"/>
-      <c r="AZ15" s="63"/>
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="21"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="107">
+      <c r="B16" s="100"/>
+      <c r="C16" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="102">
         <v>6171</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="103">
         <v>43950</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="106">
+        <v>10.5</v>
+      </c>
+      <c r="L16" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="110" t="s">
+      <c r="W16" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="X16" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y16" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="111">
-        <v>-10</v>
-      </c>
-      <c r="L16" s="110" t="s">
+      <c r="AA16" s="111">
+        <v>344564</v>
+      </c>
+      <c r="AB16" s="111">
+        <v>732870</v>
+      </c>
+      <c r="AC16" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="M16" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="S16" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="117" t="s">
+      <c r="AD16" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="W16" s="117" t="s">
-        <v>172</v>
-      </c>
-      <c r="X16" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y16" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z16" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA16" s="116">
-        <v>344564</v>
-      </c>
-      <c r="AB16" s="116">
-        <v>732870</v>
-      </c>
-      <c r="AC16" s="117" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD16" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE16" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF16" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG16" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH16" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI16" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ16" s="119">
+      <c r="AE16" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF16" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG16" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH16" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI16" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ16" s="114">
         <v>42726</v>
       </c>
-      <c r="AK16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ16" s="119">
+      <c r="AK16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ16" s="114">
         <v>42815</v>
       </c>
-      <c r="AR16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT16" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU16" s="119">
+      <c r="AR16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT16" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU16" s="114">
         <v>43911</v>
       </c>
-      <c r="AV16" s="119">
+      <c r="AV16" s="114">
         <v>43420</v>
       </c>
-      <c r="AW16" s="119" t="s">
+      <c r="AW16" s="114" t="s">
         <v>116</v>
       </c>
       <c r="AX16" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="21"/>
     </row>
-    <row r="17" spans="1:51">
-      <c r="A17" s="21"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="107">
-        <v>6171</v>
-      </c>
-      <c r="E17" s="108">
-        <v>43950</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="110" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="110" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="111">
-        <v>10.5</v>
-      </c>
-      <c r="L17" s="110" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="N17" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="R17" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="S17" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="T17" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="W17" s="117" t="s">
-        <v>172</v>
-      </c>
-      <c r="X17" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y17" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA17" s="116">
-        <v>344564</v>
-      </c>
-      <c r="AB17" s="116">
-        <v>732870</v>
-      </c>
-      <c r="AC17" s="117" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD17" s="118" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE17" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF17" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG17" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH17" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI17" s="117" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ17" s="119">
-        <v>42726</v>
-      </c>
-      <c r="AK17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ17" s="119">
-        <v>42815</v>
-      </c>
-      <c r="AR17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU17" s="119">
-        <v>43911</v>
-      </c>
-      <c r="AV17" s="119">
-        <v>43420</v>
-      </c>
-      <c r="AW17" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX17" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="21"/>
+    <row r="17" spans="1:51" ht="15" thickBot="1">
+      <c r="A17" s="62"/>
     </row>
-    <row r="18" spans="1:51" ht="15" thickBot="1">
-      <c r="A18" s="62"/>
+    <row r="18" spans="1:51">
+      <c r="A18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
     </row>
-    <row r="19" spans="1:51">
-      <c r="A19" s="61"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="63"/>
-      <c r="AU19" s="63"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-    </row>
+    <row r="19" spans="1:51"/>
     <row r="20" spans="1:51"/>
     <row r="21" spans="1:51"/>
     <row r="22" spans="1:51"/>
@@ -11528,9 +11364,9 @@
     <row r="5695"/>
     <row r="5696"/>
     <row r="5697"/>
-    <row r="5698"/>
+    <row r="5701"/>
     <row r="5702"/>
-    <row r="5703"/>
+    <row r="5706"/>
     <row r="5707"/>
     <row r="5708"/>
   </sheetData>

--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\Corrections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B0669-6138-442F-BE54-F192A5A912C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8794D14-3B35-4B9F-B086-CF7F65ADFE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="164">
   <si>
     <t>General Facility Details</t>
   </si>
@@ -799,30 +799,6 @@
   </si>
   <si>
     <t>Hagshaw Hill Wind Farm</t>
-  </si>
-  <si>
-    <t>Kincardine Offshore Wind</t>
-  </si>
-  <si>
-    <t>Kincardine Offshore Windfarm</t>
-  </si>
-  <si>
-    <t>Wind Offshore</t>
-  </si>
-  <si>
-    <t>Kincardine Offshore Windfarm, Laurencekirk, Grampian</t>
-  </si>
-  <si>
-    <t>Offshore</t>
-  </si>
-  <si>
-    <t>Marine Scotland</t>
-  </si>
-  <si>
-    <t>APP/2016/1726</t>
-  </si>
-  <si>
-    <t>Demo</t>
   </si>
   <si>
     <t>Simec/Green Highland Renewables</t>
@@ -3731,13 +3707,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BH5708"/>
+  <dimension ref="A1:BH5707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
@@ -4584,7 +4560,7 @@
       <c r="BC9" s="47"/>
       <c r="BD9" s="47"/>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:56" ht="15" thickBot="1">
       <c r="A10" s="21"/>
       <c r="B10" s="46"/>
       <c r="C10" s="84" t="s">
@@ -4733,17 +4709,17 @@
       </c>
       <c r="AY10" s="21"/>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:56" ht="15" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="100"/>
       <c r="C11" s="101" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="102">
-        <v>6136</v>
+        <v>6687</v>
       </c>
       <c r="E11" s="103">
-        <v>44077</v>
+        <v>43950</v>
       </c>
       <c r="F11" s="104" t="s">
         <v>147</v>
@@ -4761,7 +4737,7 @@
         <v>116</v>
       </c>
       <c r="K11" s="106">
-        <v>-2</v>
+        <v>-0.96</v>
       </c>
       <c r="L11" s="105" t="s">
         <v>92</v>
@@ -4775,14 +4751,14 @@
       <c r="O11" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="110">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="111">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="111">
-        <v>176</v>
+      <c r="P11" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="111" t="s">
+        <v>92</v>
       </c>
       <c r="S11" s="112" t="s">
         <v>92</v>
@@ -4800,25 +4776,25 @@
         <v>151</v>
       </c>
       <c r="X11" s="112" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="Y11" s="112" t="s">
         <v>34</v>
       </c>
       <c r="Z11" s="113" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="AA11" s="111">
-        <v>407766</v>
+        <v>215301</v>
       </c>
       <c r="AB11" s="111">
-        <v>789575</v>
+        <v>737604</v>
       </c>
       <c r="AC11" s="112" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD11" s="113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE11" s="113" t="s">
         <v>116</v>
@@ -4833,10 +4809,10 @@
         <v>116</v>
       </c>
       <c r="AI11" s="112" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="AJ11" s="114">
-        <v>42537</v>
+        <v>43313</v>
       </c>
       <c r="AK11" s="114" t="s">
         <v>116</v>
@@ -4857,7 +4833,7 @@
         <v>116</v>
       </c>
       <c r="AQ11" s="114">
-        <v>42801</v>
+        <v>43552</v>
       </c>
       <c r="AR11" s="114" t="s">
         <v>116</v>
@@ -4868,31 +4844,32 @@
       <c r="AT11" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="AU11" s="114" t="s">
-        <v>116</v>
+      <c r="AU11" s="114">
+        <v>44648</v>
       </c>
       <c r="AV11" s="114">
-        <v>43374</v>
+        <v>43800</v>
       </c>
       <c r="AW11" s="114" t="s">
         <v>116</v>
       </c>
       <c r="AX11" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY11" s="21"/>
-    </row>
-    <row r="12" spans="1:56" ht="15" thickBot="1">
+      <c r="AZ11" s="63"/>
+    </row>
+    <row r="12" spans="1:56">
       <c r="A12" s="21"/>
       <c r="B12" s="100"/>
       <c r="C12" s="101" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="102">
-        <v>6136</v>
+        <v>6687</v>
       </c>
       <c r="E12" s="103">
-        <v>44077</v>
+        <v>43950</v>
       </c>
       <c r="F12" s="104" t="s">
         <v>147</v>
@@ -4910,7 +4887,7 @@
         <v>116</v>
       </c>
       <c r="K12" s="106">
-        <v>2</v>
+        <v>0.96</v>
       </c>
       <c r="L12" s="105" t="s">
         <v>92</v>
@@ -4924,14 +4901,14 @@
       <c r="O12" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="110">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="111">
-        <v>1</v>
-      </c>
-      <c r="R12" s="111">
-        <v>176</v>
+      <c r="P12" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="111" t="s">
+        <v>92</v>
       </c>
       <c r="S12" s="112" t="s">
         <v>92</v>
@@ -4949,25 +4926,25 @@
         <v>151</v>
       </c>
       <c r="X12" s="112" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="Y12" s="112" t="s">
         <v>34</v>
       </c>
       <c r="Z12" s="113" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="AA12" s="111">
-        <v>407766</v>
+        <v>215301</v>
       </c>
       <c r="AB12" s="111">
-        <v>789575</v>
+        <v>737604</v>
       </c>
       <c r="AC12" s="112" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD12" s="113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE12" s="113" t="s">
         <v>116</v>
@@ -4982,10 +4959,10 @@
         <v>116</v>
       </c>
       <c r="AI12" s="112" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="AJ12" s="114">
-        <v>42537</v>
+        <v>43313</v>
       </c>
       <c r="AK12" s="114" t="s">
         <v>116</v>
@@ -5006,7 +4983,7 @@
         <v>116</v>
       </c>
       <c r="AQ12" s="114">
-        <v>42801</v>
+        <v>43552</v>
       </c>
       <c r="AR12" s="114" t="s">
         <v>116</v>
@@ -5017,28 +4994,29 @@
       <c r="AT12" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="AU12" s="114" t="s">
-        <v>116</v>
+      <c r="AU12" s="114">
+        <v>44648</v>
       </c>
       <c r="AV12" s="114">
-        <v>43374</v>
+        <v>43800</v>
       </c>
       <c r="AW12" s="114" t="s">
         <v>116</v>
       </c>
       <c r="AX12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="21"/>
-    </row>
-    <row r="13" spans="1:56" ht="15" thickBot="1">
+      <c r="AZ12" s="63"/>
+    </row>
+    <row r="13" spans="1:56">
       <c r="A13" s="21"/>
       <c r="B13" s="100"/>
       <c r="C13" s="101" t="s">
         <v>116</v>
       </c>
       <c r="D13" s="102">
-        <v>6687</v>
+        <v>6171</v>
       </c>
       <c r="E13" s="103">
         <v>43950</v>
@@ -5059,10 +5037,10 @@
         <v>116</v>
       </c>
       <c r="K13" s="106">
-        <v>-0.96</v>
+        <v>-10</v>
       </c>
       <c r="L13" s="105" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="M13" s="107" t="s">
         <v>116</v>
@@ -5092,10 +5070,10 @@
         <v>31</v>
       </c>
       <c r="V13" s="112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W13" s="112" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X13" s="112" t="s">
         <v>34</v>
@@ -5104,19 +5082,19 @@
         <v>34</v>
       </c>
       <c r="Z13" s="113" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" s="111">
-        <v>215301</v>
+        <v>344564</v>
       </c>
       <c r="AB13" s="111">
-        <v>737604</v>
+        <v>732870</v>
       </c>
       <c r="AC13" s="112" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD13" s="113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AE13" s="113" t="s">
         <v>116</v>
@@ -5134,7 +5112,7 @@
         <v>116</v>
       </c>
       <c r="AJ13" s="114">
-        <v>43313</v>
+        <v>42726</v>
       </c>
       <c r="AK13" s="114" t="s">
         <v>116</v>
@@ -5155,7 +5133,7 @@
         <v>116</v>
       </c>
       <c r="AQ13" s="114">
-        <v>43552</v>
+        <v>42815</v>
       </c>
       <c r="AR13" s="114" t="s">
         <v>116</v>
@@ -5167,10 +5145,10 @@
         <v>116</v>
       </c>
       <c r="AU13" s="114">
-        <v>44648</v>
+        <v>43911</v>
       </c>
       <c r="AV13" s="114">
-        <v>43800</v>
+        <v>43420</v>
       </c>
       <c r="AW13" s="114" t="s">
         <v>116</v>
@@ -5179,7 +5157,6 @@
         <v>-1</v>
       </c>
       <c r="AY13" s="21"/>
-      <c r="AZ13" s="63"/>
     </row>
     <row r="14" spans="1:56">
       <c r="A14" s="21"/>
@@ -5188,7 +5165,7 @@
         <v>116</v>
       </c>
       <c r="D14" s="102">
-        <v>6687</v>
+        <v>6171</v>
       </c>
       <c r="E14" s="103">
         <v>43950</v>
@@ -5209,10 +5186,10 @@
         <v>116</v>
       </c>
       <c r="K14" s="106">
-        <v>0.96</v>
+        <v>10.5</v>
       </c>
       <c r="L14" s="105" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="M14" s="107" t="s">
         <v>116</v>
@@ -5242,10 +5219,10 @@
         <v>32</v>
       </c>
       <c r="V14" s="112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W14" s="112" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X14" s="112" t="s">
         <v>34</v>
@@ -5254,19 +5231,19 @@
         <v>34</v>
       </c>
       <c r="Z14" s="113" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA14" s="111">
-        <v>215301</v>
+        <v>344564</v>
       </c>
       <c r="AB14" s="111">
-        <v>737604</v>
+        <v>732870</v>
       </c>
       <c r="AC14" s="112" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD14" s="113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AE14" s="113" t="s">
         <v>116</v>
@@ -5284,7 +5261,7 @@
         <v>116</v>
       </c>
       <c r="AJ14" s="114">
-        <v>43313</v>
+        <v>42726</v>
       </c>
       <c r="AK14" s="114" t="s">
         <v>116</v>
@@ -5305,7 +5282,7 @@
         <v>116</v>
       </c>
       <c r="AQ14" s="114">
-        <v>43552</v>
+        <v>42815</v>
       </c>
       <c r="AR14" s="114" t="s">
         <v>116</v>
@@ -5317,10 +5294,10 @@
         <v>116</v>
       </c>
       <c r="AU14" s="114">
-        <v>44648</v>
+        <v>43911</v>
       </c>
       <c r="AV14" s="114">
-        <v>43800</v>
+        <v>43420</v>
       </c>
       <c r="AW14" s="114" t="s">
         <v>116</v>
@@ -5329,376 +5306,79 @@
         <v>1</v>
       </c>
       <c r="AY14" s="21"/>
-      <c r="AZ14" s="63"/>
-    </row>
-    <row r="15" spans="1:56">
-      <c r="A15" s="21"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="102">
-        <v>6171</v>
-      </c>
-      <c r="E15" s="103">
-        <v>43950</v>
-      </c>
-      <c r="F15" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="106">
-        <v>-10</v>
-      </c>
-      <c r="L15" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q15" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="R15" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="S15" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="T15" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="W15" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="X15" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA15" s="111">
-        <v>344564</v>
-      </c>
-      <c r="AB15" s="111">
-        <v>732870</v>
-      </c>
-      <c r="AC15" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD15" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE15" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF15" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG15" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH15" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI15" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ15" s="114">
-        <v>42726</v>
-      </c>
-      <c r="AK15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ15" s="114">
-        <v>42815</v>
-      </c>
-      <c r="AR15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU15" s="114">
-        <v>43911</v>
-      </c>
-      <c r="AV15" s="114">
-        <v>43420</v>
-      </c>
-      <c r="AW15" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX15" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AY15" s="21"/>
+    </row>
+    <row r="15" spans="1:56" ht="15" thickBot="1">
+      <c r="A15" s="62"/>
     </row>
     <row r="16" spans="1:56">
-      <c r="A16" s="21"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="102">
-        <v>6171</v>
-      </c>
-      <c r="E16" s="103">
-        <v>43950</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="106">
-        <v>10.5</v>
-      </c>
-      <c r="L16" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="S16" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="W16" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="X16" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y16" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z16" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA16" s="111">
-        <v>344564</v>
-      </c>
-      <c r="AB16" s="111">
-        <v>732870</v>
-      </c>
-      <c r="AC16" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD16" s="113" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE16" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF16" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG16" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH16" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI16" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ16" s="114">
-        <v>42726</v>
-      </c>
-      <c r="AK16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ16" s="114">
-        <v>42815</v>
-      </c>
-      <c r="AR16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU16" s="114">
-        <v>43911</v>
-      </c>
-      <c r="AV16" s="114">
-        <v>43420</v>
-      </c>
-      <c r="AW16" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX16" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="21"/>
-    </row>
-    <row r="17" spans="1:51" ht="15" thickBot="1">
-      <c r="A17" s="62"/>
-    </row>
-    <row r="18" spans="1:51">
-      <c r="A18" s="61"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="63"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-    </row>
-    <row r="19" spans="1:51"/>
-    <row r="20" spans="1:51"/>
-    <row r="21" spans="1:51"/>
-    <row r="22" spans="1:51"/>
-    <row r="23" spans="1:51"/>
-    <row r="24" spans="1:51"/>
-    <row r="25" spans="1:51"/>
-    <row r="26" spans="1:51"/>
-    <row r="27" spans="1:51"/>
-    <row r="28" spans="1:51"/>
-    <row r="29" spans="1:51"/>
-    <row r="30" spans="1:51"/>
-    <row r="31" spans="1:51"/>
-    <row r="32" spans="1:51"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="63"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="63"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
     <row r="33"/>
     <row r="34"/>
     <row r="35"/>
@@ -11363,12 +11043,12 @@
     <row r="5694"/>
     <row r="5695"/>
     <row r="5696"/>
-    <row r="5697"/>
-    <row r="5701"/>
-    <row r="5702"/>
+    <row r="5699"/>
+    <row r="5700"/>
+    <row r="5704"/>
+    <row r="5705"/>
     <row r="5706"/>
     <row r="5707"/>
-    <row r="5708"/>
   </sheetData>
   <autoFilter ref="C7:AW9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -1,35 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8794D14-3B35-4B9F-B086-CF7F65ADFE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D59E86-9621-4B4A-A5AB-6D4FE149043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
-    <sheet name="Database" sheetId="11" r:id="rId2"/>
+    <sheet name="REPD" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Database!$C$7:$AW$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">REPD!$A$1:$AU$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="162">
   <si>
     <t>General Facility Details</t>
   </si>
@@ -335,9 +344,6 @@
     <t>Height of Turbines (m)</t>
   </si>
   <si>
-    <t>Planning / Development Details</t>
-  </si>
-  <si>
     <t>For windfarms, the height of the wind turbines in metres (m)</t>
   </si>
   <si>
@@ -451,9 +457,6 @@
     <t>S0011W1</t>
   </si>
   <si>
-    <t>Timeline (dd/mm/yyyy)</t>
-  </si>
-  <si>
     <t>Strathclyde</t>
   </si>
   <si>
@@ -774,9 +777,6 @@
     <t>Version: September 2019</t>
   </si>
   <si>
-    <t>CORRECTIONS</t>
-  </si>
-  <si>
     <t>Sites</t>
   </si>
   <si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>16/00916/FULM</t>
+  </si>
+  <si>
+    <t>Heat Network Ref</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1779,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="99">
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1789,9 +1792,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="21" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1801,24 +1801,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="23" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1873,24 +1864,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1909,15 +1882,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1930,9 +1894,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1948,24 +1909,9 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1981,9 +1927,6 @@
     <xf numFmtId="3" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2077,9 +2020,6 @@
     <xf numFmtId="2" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2133,6 +2073,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2575,1112 +2518,1112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="2.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="45.7265625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="70" style="20" customWidth="1"/>
-    <col min="6" max="7" width="2.7265625" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="20" hidden="1"/>
+    <col min="1" max="3" width="2.7265625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="70" style="16" customWidth="1"/>
+    <col min="6" max="7" width="2.7265625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="16" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" thickBot="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="14.5">
-      <c r="A2" s="21"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="21"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" thickTop="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="14.5">
-      <c r="A5" s="21"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="14.5">
-      <c r="A6" s="21"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="14.5">
-      <c r="A7" s="21"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="21"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="14.5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="14.5">
-      <c r="A9" s="21"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="14.5">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="14.5">
-      <c r="A11" s="21"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="14.5">
-      <c r="A12" s="21"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="14.5">
-      <c r="A14" s="21"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="105.75" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="14.5">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="16" thickBot="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="14.5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" ht="14.5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="14.5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" ht="14.5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="25" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="29">
-      <c r="A22" s="21"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="14.5">
-      <c r="A23" s="21"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="26" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="14.5">
-      <c r="A24" s="21"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="26" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="21"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" ht="14.5">
-      <c r="A25" s="21"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="26" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" ht="14.5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="26" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="14.5">
-      <c r="A27" s="28"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="27" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="17">
-      <c r="A28" s="21"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="26" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="14.5">
-      <c r="A29" s="21"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="26" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="14.5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="26" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="29">
-      <c r="A31" s="21"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="26" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="21"/>
+      <c r="E31" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="14.5">
-      <c r="A32" s="21"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="26" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="14.5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="26" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" ht="14.5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" ht="14.5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="24" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" ht="14.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" ht="14.5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="25" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="21"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" ht="29">
-      <c r="A38" s="21"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="29" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="21"/>
+      <c r="E38" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" ht="29">
-      <c r="A39" s="21"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" ht="29">
-      <c r="A40" s="21"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="14.5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" ht="14.5">
-      <c r="A42" s="21"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="21"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="29">
-      <c r="A43" s="21"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="39" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="21"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" ht="29">
-      <c r="A44" s="21"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="21"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="29">
-      <c r="A45" s="21"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="21"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="29">
-      <c r="A46" s="21"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="21"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" ht="43.5">
-      <c r="A47" s="21"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="21"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="29">
-      <c r="A48" s="21"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="21"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" ht="29">
-      <c r="A49" s="21"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="21"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" ht="14.5">
-      <c r="A50" s="21"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="39" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="21"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" ht="14.5">
-      <c r="A51" s="21"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="39" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="21"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" ht="29">
-      <c r="A52" s="21"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="39" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="21"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" ht="14.5">
-      <c r="A53" s="21"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="39" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="21"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" ht="101.5">
-      <c r="A54" s="21"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="21"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" ht="14.5">
-      <c r="A55" s="21"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="21"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" ht="14.5">
-      <c r="A56" s="21"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="24" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="21"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" ht="14.5">
-      <c r="A57" s="21"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="21"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.5">
-      <c r="A58" s="21"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="25" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="21"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" ht="14.5">
-      <c r="A59" s="21"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="26" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="21"/>
+      <c r="E59" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="14.5">
-      <c r="A60" s="21"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="26" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" ht="14.5">
-      <c r="A61" s="21"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="26" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="21"/>
+      <c r="E61" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" ht="14.5">
-      <c r="A62" s="21"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="26" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="21"/>
+      <c r="E62" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" ht="14.5">
-      <c r="A63" s="21"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="26" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="21"/>
+      <c r="E63" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" ht="14.5">
-      <c r="A64" s="21"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="26" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="21"/>
+      <c r="E64" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" ht="14.5">
-      <c r="A65" s="21"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="26" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="118"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="21"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" ht="14.5">
-      <c r="A66" s="21"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="21"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" ht="14.5">
-      <c r="A67" s="21"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="24" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="21"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" ht="14.5">
-      <c r="A68" s="21"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="21"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" ht="14.5">
-      <c r="A69" s="21"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="25" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="21"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.5">
-      <c r="A70" s="21"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="26" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="21"/>
+      <c r="E70" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="14.5">
-      <c r="A71" s="21"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="26" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="21"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" ht="14.5">
-      <c r="A72" s="21"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="26" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="21"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="17"/>
     </row>
     <row r="73" spans="1:7" ht="14.5">
-      <c r="A73" s="21"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="21"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" ht="29">
-      <c r="A74" s="21"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="21"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" spans="1:7" ht="29">
-      <c r="A75" s="21"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="26" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="21"/>
+      <c r="E75" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:7" ht="14.5">
-      <c r="A76" s="21"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" s="23" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="21"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" ht="14.5">
-      <c r="A77" s="21"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="21"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" ht="14.5">
-      <c r="A78" s="21"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="24" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="21"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79" spans="1:7" ht="14.5">
-      <c r="A79" s="21"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="21"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7" ht="14.5">
-      <c r="A80" s="21"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="25" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="25" t="s">
+      <c r="E80" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="21"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:7" ht="14.5">
-      <c r="A81" s="21"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="21"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" ht="14.5">
-      <c r="A82" s="21"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="21"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" ht="14.5">
-      <c r="A83" s="21"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="26" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="21"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84" spans="1:7" ht="14.5">
-      <c r="A84" s="21"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="26" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="21"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="17"/>
     </row>
     <row r="85" spans="1:7" ht="14.5">
-      <c r="A85" s="21"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="21"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7" ht="14.5">
-      <c r="A86" s="21"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="26" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E86" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="21"/>
+      <c r="E86" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87" spans="1:7" ht="14.5">
-      <c r="A87" s="21"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="26" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="21"/>
+      <c r="E87" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7" ht="14.5">
-      <c r="A88" s="21"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="26" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="21"/>
+      <c r="E88" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7" ht="14.5">
-      <c r="A89" s="21"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="21"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="1:7" ht="14.5">
-      <c r="A90" s="21"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="21"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" ht="14.5">
-      <c r="A91" s="21"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="21"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="1:7" ht="14.5">
-      <c r="A92" s="21"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="26" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="21"/>
+      <c r="E92" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" ht="14.5">
-      <c r="A93" s="21"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="26" t="s">
+      <c r="A93" s="17"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="21"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7" ht="14.5">
-      <c r="A94" s="21"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="26" t="s">
+      <c r="A94" s="17"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="21"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" thickBot="1">
-      <c r="A95" s="21"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="21"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7" ht="14.5">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" ht="14.5" hidden="1"/>
     <row r="98" ht="14.5" hidden="1"/>
@@ -3707,1662 +3650,1322 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BH5707"/>
+  <dimension ref="A1:BI5705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.7265625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="48" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="38.453125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="39.7265625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" style="43" customWidth="1"/>
-    <col min="9" max="10" width="23.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" style="49" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="43" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="43" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="50" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="43" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="43" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="13.81640625" style="43" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="30.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="30.26953125" style="43" customWidth="1"/>
-    <col min="22" max="22" width="58.54296875" style="43" customWidth="1"/>
-    <col min="23" max="23" width="40.54296875" style="43" customWidth="1"/>
-    <col min="24" max="24" width="20.81640625" style="43" customWidth="1"/>
-    <col min="25" max="25" width="16" style="43" customWidth="1"/>
-    <col min="26" max="26" width="11.54296875" style="43" customWidth="1"/>
-    <col min="27" max="28" width="14.1796875" style="43" customWidth="1"/>
-    <col min="29" max="29" width="58.81640625" style="43" customWidth="1"/>
-    <col min="30" max="30" width="17.54296875" style="43" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="11.7265625" style="43" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="17" style="43" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="11.7265625" style="43" hidden="1" customWidth="1"/>
-    <col min="36" max="37" width="16.7265625" style="43" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="12.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="39" max="40" width="14.1796875" style="43" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="14.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="12.54296875" style="43" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="12.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="12.7265625" style="43" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="11.7265625" style="43" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="12" style="43" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="13.26953125" style="43" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="15.453125" style="43" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="13.1796875" style="43" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="13.1796875" style="43" customWidth="1"/>
-    <col min="51" max="52" width="2.7265625" style="43" customWidth="1"/>
-    <col min="53" max="60" width="0" style="43" hidden="1" customWidth="1"/>
-    <col min="61" max="16384" width="9.1796875" style="43" hidden="1"/>
+    <col min="1" max="1" width="10.26953125" style="35" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="39.7265625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" style="33" customWidth="1"/>
+    <col min="7" max="8" width="23.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="33" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="33" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" style="37" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="33" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="33" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="30.26953125" style="33" customWidth="1"/>
+    <col min="20" max="20" width="58.54296875" style="33" customWidth="1"/>
+    <col min="21" max="21" width="40.54296875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" style="33" customWidth="1"/>
+    <col min="23" max="23" width="16" style="33" customWidth="1"/>
+    <col min="24" max="24" width="11.54296875" style="33" customWidth="1"/>
+    <col min="25" max="26" width="14.1796875" style="33" customWidth="1"/>
+    <col min="27" max="27" width="58.81640625" style="33" customWidth="1"/>
+    <col min="28" max="28" width="17.54296875" style="33" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="11.7265625" style="33" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="17" style="33" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="11.7265625" style="33" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="16.7265625" style="33" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="12.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="37" max="38" width="14.1796875" style="33" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="12.54296875" style="33" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="12.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7265625" style="33" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7265625" style="33" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="12" style="33" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="13.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.453125" style="33" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="13.1796875" style="33" hidden="1" customWidth="1"/>
+    <col min="48" max="49" width="13.1796875" style="33" customWidth="1"/>
+    <col min="50" max="51" width="2.7265625" style="33" customWidth="1"/>
+    <col min="52" max="61" width="0" style="33" hidden="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.1796875" style="33" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="53" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="61"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
+    <row r="1" spans="1:55" s="39" customFormat="1" ht="56">
+      <c r="A1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="17"/>
     </row>
-    <row r="2" spans="1:56" s="53" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="21"/>
+    <row r="2" spans="1:55" ht="15" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="50">
+        <v>3593</v>
+      </c>
+      <c r="C2" s="51">
+        <v>40644</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="54">
+        <v>0</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="58">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="59">
+        <v>-6</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="59">
+        <v>278965</v>
+      </c>
+      <c r="Z2" s="59">
+        <v>630750</v>
+      </c>
+      <c r="AA2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD2" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE2" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" s="62">
+        <v>34467</v>
+      </c>
+      <c r="AI2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO2" s="62">
+        <v>34640</v>
+      </c>
+      <c r="AP2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT2" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU2" s="62">
+        <v>35004</v>
+      </c>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="79">
+        <v>-1</v>
+      </c>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
     </row>
-    <row r="3" spans="1:56" s="53" customFormat="1" ht="16" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:55" ht="15" customHeight="1">
+      <c r="A3" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="65">
+        <v>3301</v>
+      </c>
+      <c r="C3" s="66">
+        <v>40644</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="69">
+        <v>0</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="74">
+        <v>-7</v>
+      </c>
+      <c r="P3" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" s="74">
+        <v>278980</v>
+      </c>
+      <c r="Z3" s="74">
+        <v>630740</v>
+      </c>
+      <c r="AA3" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC3" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD3" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE3" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF3" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG3" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH3" s="77">
+        <v>34467</v>
+      </c>
+      <c r="AI3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO3" s="77">
+        <v>34640</v>
+      </c>
+      <c r="AP3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT3" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU3" s="77">
+        <v>35004</v>
+      </c>
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="78">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+    </row>
+    <row r="4" spans="1:55" ht="15" thickBot="1">
+      <c r="A4" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="65">
+        <v>6665</v>
+      </c>
+      <c r="C4" s="66">
+        <v>43641</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="21"/>
+      <c r="F4" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="69">
+        <v>-180</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="73">
+        <v>5.6</v>
+      </c>
+      <c r="O4" s="74">
+        <v>-42</v>
+      </c>
+      <c r="P4" s="74">
+        <v>180</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>142695</v>
+      </c>
+      <c r="Z4" s="74">
+        <v>934003</v>
+      </c>
+      <c r="AA4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC4" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD4" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE4" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF4" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG4" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH4" s="77">
+        <v>43607</v>
+      </c>
+      <c r="AI4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU4" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="78">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="17"/>
     </row>
-    <row r="4" spans="1:56" s="53" customFormat="1" ht="15" thickTop="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="21"/>
+    <row r="5" spans="1:55" ht="15" thickBot="1">
+      <c r="A5" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="81">
+        <v>6687</v>
+      </c>
+      <c r="C5" s="82">
+        <v>43950</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="85">
+        <v>-0.96</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="V5" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y5" s="90">
+        <v>215301</v>
+      </c>
+      <c r="Z5" s="90">
+        <v>737604</v>
+      </c>
+      <c r="AA5" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB5" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC5" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE5" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF5" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH5" s="93">
+        <v>43313</v>
+      </c>
+      <c r="AI5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO5" s="93">
+        <v>43552</v>
+      </c>
+      <c r="AP5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS5" s="93">
+        <v>44648</v>
+      </c>
+      <c r="AT5" s="93">
+        <v>43800</v>
+      </c>
+      <c r="AU5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV5" s="93"/>
+      <c r="AW5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="44"/>
     </row>
-    <row r="5" spans="1:56" s="53" customFormat="1" ht="16" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12" t="s">
+    <row r="6" spans="1:55">
+      <c r="A6" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="81">
+        <v>6687</v>
+      </c>
+      <c r="C6" s="82">
+        <v>43950</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="85">
+        <v>0.96</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="U6" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="V6" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y6" s="90">
+        <v>215301</v>
+      </c>
+      <c r="Z6" s="90">
+        <v>737604</v>
+      </c>
+      <c r="AA6" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB6" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD6" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE6" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF6" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG6" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH6" s="93">
+        <v>43313</v>
+      </c>
+      <c r="AI6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO6" s="93">
+        <v>43552</v>
+      </c>
+      <c r="AP6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS6" s="93">
+        <v>44648</v>
+      </c>
+      <c r="AT6" s="93">
+        <v>43800</v>
+      </c>
+      <c r="AU6" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV6" s="93"/>
+      <c r="AW6" s="7">
         <v>1</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="21"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="44"/>
     </row>
-    <row r="6" spans="1:56" s="53" customFormat="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="21"/>
+    <row r="7" spans="1:55">
+      <c r="A7" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="81">
+        <v>6171</v>
+      </c>
+      <c r="C7" s="82">
+        <v>43950</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="85">
+        <v>-10</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="U7" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="V7" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y7" s="90">
+        <v>344564</v>
+      </c>
+      <c r="Z7" s="90">
+        <v>732870</v>
+      </c>
+      <c r="AA7" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB7" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC7" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD7" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE7" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF7" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG7" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH7" s="93">
+        <v>42726</v>
+      </c>
+      <c r="AI7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO7" s="93">
+        <v>42815</v>
+      </c>
+      <c r="AP7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS7" s="93">
+        <v>43911</v>
+      </c>
+      <c r="AT7" s="93">
+        <v>43420</v>
+      </c>
+      <c r="AU7" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AX7" s="17"/>
     </row>
-    <row r="7" spans="1:56" s="53" customFormat="1" ht="56">
-      <c r="A7" s="21"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="25" t="s">
+    <row r="8" spans="1:55">
+      <c r="A8" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="81">
+        <v>6171</v>
+      </c>
+      <c r="C8" s="82">
+        <v>43950</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="85">
+        <v>10.5</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="X7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC7" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF7" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG7" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK7" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR7" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS7" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT7" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV7" s="25" t="s">
+      <c r="O8" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="AW7" s="25" t="s">
+      <c r="S8" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="AX7" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="21"/>
+      <c r="T8" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="U8" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="V8" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y8" s="90">
+        <v>344564</v>
+      </c>
+      <c r="Z8" s="90">
+        <v>732870</v>
+      </c>
+      <c r="AA8" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB8" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD8" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG8" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH8" s="93">
+        <v>42726</v>
+      </c>
+      <c r="AI8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO8" s="93">
+        <v>42815</v>
+      </c>
+      <c r="AP8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS8" s="93">
+        <v>43911</v>
+      </c>
+      <c r="AT8" s="93">
+        <v>43420</v>
+      </c>
+      <c r="AU8" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="17"/>
     </row>
-    <row r="8" spans="1:56" ht="15" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="70">
-        <v>3593</v>
-      </c>
-      <c r="E8" s="71">
-        <v>40644</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="74">
-        <v>0</v>
-      </c>
-      <c r="L8" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" s="78">
-        <v>0.6</v>
-      </c>
-      <c r="Q8" s="79">
-        <v>-6</v>
-      </c>
-      <c r="R8" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="S8" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y8" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA8" s="79">
-        <v>278965</v>
-      </c>
-      <c r="AB8" s="79">
-        <v>630750</v>
-      </c>
-      <c r="AC8" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD8" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE8" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF8" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG8" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH8" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI8" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ8" s="82">
-        <v>34467</v>
-      </c>
-      <c r="AK8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ8" s="82">
-        <v>34640</v>
-      </c>
-      <c r="AR8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV8" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW8" s="82">
-        <v>35004</v>
-      </c>
-      <c r="AX8" s="99">
-        <v>-1</v>
-      </c>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="47"/>
-      <c r="BB8" s="47"/>
-      <c r="BC8" s="47"/>
-      <c r="BD8" s="47"/>
+    <row r="9" spans="1:55" ht="15" thickBot="1"/>
+    <row r="10" spans="1:55">
+      <c r="A10" s="45"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
     </row>
-    <row r="9" spans="1:56" ht="15" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="85">
-        <v>3301</v>
-      </c>
-      <c r="E9" s="86">
-        <v>40644</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="89">
-        <v>0</v>
-      </c>
-      <c r="L9" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="93">
-        <v>0.6</v>
-      </c>
-      <c r="Q9" s="94">
-        <v>-7</v>
-      </c>
-      <c r="R9" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="W9" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y9" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA9" s="94">
-        <v>278980</v>
-      </c>
-      <c r="AB9" s="94">
-        <v>630740</v>
-      </c>
-      <c r="AC9" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD9" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE9" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF9" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG9" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH9" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI9" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ9" s="97">
-        <v>34467</v>
-      </c>
-      <c r="AK9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ9" s="97">
-        <v>34640</v>
-      </c>
-      <c r="AR9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV9" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW9" s="97">
-        <v>35004</v>
-      </c>
-      <c r="AX9" s="98">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="67"/>
-      <c r="BA9" s="47"/>
-      <c r="BB9" s="47"/>
-      <c r="BC9" s="47"/>
-      <c r="BD9" s="47"/>
-    </row>
-    <row r="10" spans="1:56" ht="15" thickBot="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="85">
-        <v>6665</v>
-      </c>
-      <c r="E10" s="86">
-        <v>43641</v>
-      </c>
-      <c r="F10" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="H10" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="89">
-        <v>-180</v>
-      </c>
-      <c r="L10" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="93">
-        <v>5.6</v>
-      </c>
-      <c r="Q10" s="94">
-        <v>-42</v>
-      </c>
-      <c r="R10" s="94">
-        <v>180</v>
-      </c>
-      <c r="S10" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="T10" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="U10" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="V10" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="W10" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="X10" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA10" s="94">
-        <v>142695</v>
-      </c>
-      <c r="AB10" s="94">
-        <v>934003</v>
-      </c>
-      <c r="AC10" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD10" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF10" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH10" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI10" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ10" s="97">
-        <v>43607</v>
-      </c>
-      <c r="AK10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX10" s="98">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="21"/>
-    </row>
-    <row r="11" spans="1:56" ht="15" thickBot="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="102">
-        <v>6687</v>
-      </c>
-      <c r="E11" s="103">
-        <v>43950</v>
-      </c>
-      <c r="F11" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="106">
-        <v>-0.96</v>
-      </c>
-      <c r="L11" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="O11" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="S11" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="W11" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="X11" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y11" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA11" s="111">
-        <v>215301</v>
-      </c>
-      <c r="AB11" s="111">
-        <v>737604</v>
-      </c>
-      <c r="AC11" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD11" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE11" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF11" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG11" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH11" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI11" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ11" s="114">
-        <v>43313</v>
-      </c>
-      <c r="AK11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ11" s="114">
-        <v>43552</v>
-      </c>
-      <c r="AR11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU11" s="114">
-        <v>44648</v>
-      </c>
-      <c r="AV11" s="114">
-        <v>43800</v>
-      </c>
-      <c r="AW11" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX11" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="63"/>
-    </row>
-    <row r="12" spans="1:56">
-      <c r="A12" s="21"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="102">
-        <v>6687</v>
-      </c>
-      <c r="E12" s="103">
-        <v>43950</v>
-      </c>
-      <c r="F12" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="105" t="s">
-        <v>148</v>
-      </c>
-      <c r="H12" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="106">
-        <v>0.96</v>
-      </c>
-      <c r="L12" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="R12" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="T12" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="V12" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="W12" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="X12" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA12" s="111">
-        <v>215301</v>
-      </c>
-      <c r="AB12" s="111">
-        <v>737604</v>
-      </c>
-      <c r="AC12" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD12" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE12" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF12" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG12" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH12" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI12" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ12" s="114">
-        <v>43313</v>
-      </c>
-      <c r="AK12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ12" s="114">
-        <v>43552</v>
-      </c>
-      <c r="AR12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU12" s="114">
-        <v>44648</v>
-      </c>
-      <c r="AV12" s="114">
-        <v>43800</v>
-      </c>
-      <c r="AW12" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX12" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="63"/>
-    </row>
-    <row r="13" spans="1:56">
-      <c r="A13" s="21"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="102">
-        <v>6171</v>
-      </c>
-      <c r="E13" s="103">
-        <v>43950</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="106">
-        <v>-10</v>
-      </c>
-      <c r="L13" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="M13" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="R13" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="S13" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="T13" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="W13" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="X13" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y13" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA13" s="111">
-        <v>344564</v>
-      </c>
-      <c r="AB13" s="111">
-        <v>732870</v>
-      </c>
-      <c r="AC13" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD13" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE13" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF13" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG13" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH13" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI13" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ13" s="114">
-        <v>42726</v>
-      </c>
-      <c r="AK13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ13" s="114">
-        <v>42815</v>
-      </c>
-      <c r="AR13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU13" s="114">
-        <v>43911</v>
-      </c>
-      <c r="AV13" s="114">
-        <v>43420</v>
-      </c>
-      <c r="AW13" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX13" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AY13" s="21"/>
-    </row>
-    <row r="14" spans="1:56">
-      <c r="A14" s="21"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="102">
-        <v>6171</v>
-      </c>
-      <c r="E14" s="103">
-        <v>43950</v>
-      </c>
-      <c r="F14" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="H14" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="105" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="106">
-        <v>10.5</v>
-      </c>
-      <c r="L14" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="S14" s="112" t="s">
-        <v>92</v>
-      </c>
-      <c r="T14" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="W14" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="X14" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y14" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA14" s="111">
-        <v>344564</v>
-      </c>
-      <c r="AB14" s="111">
-        <v>732870</v>
-      </c>
-      <c r="AC14" s="112" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD14" s="113" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE14" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF14" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG14" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH14" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI14" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ14" s="114">
-        <v>42726</v>
-      </c>
-      <c r="AK14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ14" s="114">
-        <v>42815</v>
-      </c>
-      <c r="AR14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU14" s="114">
-        <v>43911</v>
-      </c>
-      <c r="AV14" s="114">
-        <v>43420</v>
-      </c>
-      <c r="AW14" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="21"/>
-    </row>
-    <row r="15" spans="1:56" ht="15" thickBot="1">
-      <c r="A15" s="62"/>
-    </row>
-    <row r="16" spans="1:56">
-      <c r="A16" s="61"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="63"/>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="63"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-    </row>
+    <row r="11" spans="1:55"/>
+    <row r="12" spans="1:55"/>
+    <row r="13" spans="1:55"/>
+    <row r="14" spans="1:55"/>
+    <row r="15" spans="1:55"/>
+    <row r="16" spans="1:55"/>
     <row r="17"/>
     <row r="18"/>
     <row r="19"/>
@@ -11043,14 +10646,14 @@
     <row r="5694"/>
     <row r="5695"/>
     <row r="5696"/>
+    <row r="5698"/>
     <row r="5699"/>
     <row r="5700"/>
+    <row r="5701"/>
     <row r="5704"/>
     <row r="5705"/>
-    <row r="5706"/>
-    <row r="5707"/>
   </sheetData>
-  <autoFilter ref="C7:AW9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:AU3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ENERGY BRANCH\Statistics\Energy Statistics Processing\Data Sources\REPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\Corrections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D59E86-9621-4B4A-A5AB-6D4FE149043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D5DDC-7E1A-43AA-A123-8C3FFDCD0F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1550" windowWidth="28700" windowHeight="15380" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="153">
   <si>
     <t>General Facility Details</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Old Ref ID</t>
   </si>
   <si>
-    <t>Ref ID</t>
-  </si>
-  <si>
     <t>County</t>
   </si>
   <si>
@@ -825,34 +822,10 @@
     <t>18/01258/PP</t>
   </si>
   <si>
-    <t>MVV Environment</t>
-  </si>
-  <si>
-    <t>Baldovie Industrial Estate (Forties Road)</t>
-  </si>
-  <si>
-    <t>EfW Incineration</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Land At Forties Road Baldovie Industrial Estate Dundee</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>DD4 0NS</t>
-  </si>
-  <si>
-    <t>Dundee City Council</t>
-  </si>
-  <si>
-    <t>16/00916/FULM</t>
-  </si>
-  <si>
     <t>Heat Network Ref</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -2062,6 +2035,9 @@
     <xf numFmtId="14" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2073,9 +2049,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2568,7 +2541,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
       <c r="D5" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
@@ -2661,10 +2634,10 @@
       <c r="A15" s="17"/>
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="95"/>
+      <c r="D15" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="96"/>
       <c r="F15" s="7"/>
       <c r="G15" s="17"/>
     </row>
@@ -2735,10 +2708,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
       <c r="D22" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="17"/>
@@ -2936,7 +2909,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="17"/>
@@ -2947,7 +2920,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="26"/>
       <c r="E39" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="17"/>
@@ -2958,7 +2931,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="26"/>
       <c r="E40" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="17"/>
@@ -2969,7 +2942,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="26"/>
       <c r="E41" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="17"/>
@@ -2980,7 +2953,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="26"/>
       <c r="E42" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="17"/>
@@ -3002,7 +2975,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="26"/>
       <c r="E44" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="17"/>
@@ -3013,7 +2986,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="26"/>
       <c r="E45" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="17"/>
@@ -3024,7 +2997,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="26"/>
       <c r="E46" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="17"/>
@@ -3035,7 +3008,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="26"/>
       <c r="E47" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="17"/>
@@ -3046,7 +3019,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="26"/>
       <c r="E48" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="17"/>
@@ -3057,7 +3030,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="26"/>
       <c r="E49" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="17"/>
@@ -3111,10 +3084,10 @@
       <c r="B54" s="5"/>
       <c r="C54" s="8"/>
       <c r="D54" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="17"/>
@@ -3233,8 +3206,8 @@
       <c r="D64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="96" t="s">
-        <v>130</v>
+      <c r="E64" s="97" t="s">
+        <v>129</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="17"/>
@@ -3246,7 +3219,7 @@
       <c r="D65" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="97"/>
+      <c r="E65" s="98"/>
       <c r="F65" s="7"/>
       <c r="G65" s="17"/>
     </row>
@@ -3300,7 +3273,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="17"/>
@@ -3336,10 +3309,10 @@
       <c r="B73" s="5"/>
       <c r="C73" s="8"/>
       <c r="D73" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="17"/>
@@ -3349,10 +3322,10 @@
       <c r="B74" s="5"/>
       <c r="C74" s="8"/>
       <c r="D74" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="17"/>
@@ -3365,7 +3338,7 @@
         <v>24</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="17"/>
@@ -3375,7 +3348,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="8"/>
       <c r="D76" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>53</v>
@@ -3430,10 +3403,10 @@
       <c r="B81" s="5"/>
       <c r="C81" s="8"/>
       <c r="D81" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="17"/>
@@ -3443,10 +3416,10 @@
       <c r="B82" s="5"/>
       <c r="C82" s="8"/>
       <c r="D82" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="17"/>
@@ -3482,10 +3455,10 @@
       <c r="B85" s="5"/>
       <c r="C85" s="8"/>
       <c r="D85" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="17"/>
@@ -3498,7 +3471,7 @@
         <v>27</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="17"/>
@@ -3511,7 +3484,7 @@
         <v>28</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="17"/>
@@ -3524,7 +3497,7 @@
         <v>29</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="17"/>
@@ -3534,10 +3507,10 @@
       <c r="B89" s="5"/>
       <c r="C89" s="8"/>
       <c r="D89" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="17"/>
@@ -3547,10 +3520,10 @@
       <c r="B90" s="5"/>
       <c r="C90" s="8"/>
       <c r="D90" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="17"/>
@@ -3560,10 +3533,10 @@
       <c r="B91" s="5"/>
       <c r="C91" s="8"/>
       <c r="D91" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="17"/>
@@ -3576,7 +3549,7 @@
         <v>30</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="17"/>
@@ -3653,10 +3626,10 @@
   <dimension ref="A1:BI5705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AV1" sqref="AV1"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
@@ -3713,10 +3686,10 @@
         <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>45</v>
@@ -3728,31 +3701,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="I1" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>61</v>
@@ -3764,13 +3737,13 @@
         <v>13</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T1" s="21" t="s">
         <v>14</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V1" s="21" t="s">
         <v>16</v>
@@ -3788,7 +3761,7 @@
         <v>20</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB1" s="21" t="s">
         <v>22</v>
@@ -3797,22 +3770,22 @@
         <v>23</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE1" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF1" s="21" t="s">
         <v>24</v>
       </c>
       <c r="AG1" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH1" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ1" s="21" t="s">
         <v>25</v>
@@ -3821,7 +3794,7 @@
         <v>26</v>
       </c>
       <c r="AL1" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM1" s="21" t="s">
         <v>27</v>
@@ -3833,16 +3806,16 @@
         <v>29</v>
       </c>
       <c r="AP1" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AR1" s="21" t="s">
-        <v>82</v>
-      </c>
       <c r="AS1" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AT1" s="21" t="s">
         <v>31</v>
@@ -3851,17 +3824,17 @@
         <v>32</v>
       </c>
       <c r="AV1" s="21" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AW1" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AX1" s="7"/>
       <c r="AY1" s="17"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="50">
         <v>3593</v>
@@ -3870,34 +3843,34 @@
         <v>40644</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" s="54">
         <v>0</v>
       </c>
       <c r="J2" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N2" s="58">
         <v>0.6</v>
@@ -3906,10 +3879,10 @@
         <v>-6</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="60" t="s">
         <v>32</v>
@@ -3918,10 +3891,10 @@
         <v>32</v>
       </c>
       <c r="T2" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U2" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V2" s="60" t="s">
         <v>34</v>
@@ -3930,7 +3903,7 @@
         <v>34</v>
       </c>
       <c r="X2" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="59">
         <v>278965</v>
@@ -3942,61 +3915,61 @@
         <v>36</v>
       </c>
       <c r="AB2" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC2" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD2" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE2" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF2" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG2" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH2" s="62">
         <v>34467</v>
       </c>
       <c r="AI2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO2" s="62">
         <v>34640</v>
       </c>
       <c r="AP2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT2" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU2" s="62">
         <v>35004</v>
@@ -4014,7 +3987,7 @@
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1">
       <c r="A3" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="65">
         <v>3301</v>
@@ -4023,34 +3996,34 @@
         <v>40644</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="68" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I3" s="69">
         <v>0</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L3" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M3" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="73">
         <v>0.6</v>
@@ -4059,10 +4032,10 @@
         <v>-7</v>
       </c>
       <c r="P3" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R3" s="75" t="s">
         <v>32</v>
@@ -4071,10 +4044,10 @@
         <v>32</v>
       </c>
       <c r="T3" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U3" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V3" s="75" t="s">
         <v>34</v>
@@ -4083,7 +4056,7 @@
         <v>34</v>
       </c>
       <c r="X3" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="74">
         <v>278980</v>
@@ -4095,66 +4068,66 @@
         <v>36</v>
       </c>
       <c r="AB3" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC3" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD3" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE3" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF3" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG3" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH3" s="77">
         <v>34467</v>
       </c>
       <c r="AI3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO3" s="77">
         <v>34640</v>
       </c>
       <c r="AP3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT3" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU3" s="77">
         <v>35004</v>
       </c>
-      <c r="AV3" s="98"/>
+      <c r="AV3" s="94"/>
       <c r="AW3" s="78">
         <v>0</v>
       </c>
@@ -4167,7 +4140,7 @@
     </row>
     <row r="4" spans="1:55" ht="15" thickBot="1">
       <c r="A4" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="65">
         <v>6665</v>
@@ -4176,34 +4149,34 @@
         <v>43641</v>
       </c>
       <c r="D4" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>137</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>138</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="69">
         <v>-180</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4" s="73">
         <v>5.6</v>
@@ -4215,19 +4188,19 @@
         <v>180</v>
       </c>
       <c r="Q4" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R4" s="75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S4" s="75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T4" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="75" t="s">
         <v>139</v>
-      </c>
-      <c r="U4" s="75" t="s">
-        <v>140</v>
       </c>
       <c r="V4" s="75" t="s">
         <v>34</v>
@@ -4236,7 +4209,7 @@
         <v>34</v>
       </c>
       <c r="X4" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="74">
         <v>142695</v>
@@ -4248,66 +4221,66 @@
         <v>35</v>
       </c>
       <c r="AB4" s="76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC4" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD4" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE4" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF4" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG4" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH4" s="77">
         <v>43607</v>
       </c>
       <c r="AI4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT4" s="77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU4" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV4" s="98"/>
+        <v>113</v>
+      </c>
+      <c r="AV4" s="94"/>
       <c r="AW4" s="78">
         <v>0</v>
       </c>
@@ -4315,7 +4288,7 @@
     </row>
     <row r="5" spans="1:55" ht="15" thickBot="1">
       <c r="A5" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="81">
         <v>6687</v>
@@ -4324,46 +4297,46 @@
         <v>43950</v>
       </c>
       <c r="D5" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="F5" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="84" t="s">
-        <v>146</v>
-      </c>
       <c r="G5" s="84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="85">
         <v>-0.96</v>
       </c>
       <c r="J5" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" s="86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L5" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5" s="89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P5" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R5" s="91" t="s">
         <v>31</v>
@@ -4372,10 +4345,10 @@
         <v>31</v>
       </c>
       <c r="T5" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="U5" s="91" t="s">
         <v>147</v>
-      </c>
-      <c r="U5" s="91" t="s">
-        <v>148</v>
       </c>
       <c r="V5" s="91" t="s">
         <v>34</v>
@@ -4384,7 +4357,7 @@
         <v>34</v>
       </c>
       <c r="X5" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y5" s="90">
         <v>215301</v>
@@ -4393,58 +4366,58 @@
         <v>737604</v>
       </c>
       <c r="AA5" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB5" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AB5" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="AC5" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD5" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE5" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF5" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG5" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH5" s="93">
         <v>43313</v>
       </c>
       <c r="AI5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO5" s="93">
         <v>43552</v>
       </c>
       <c r="AP5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS5" s="93">
         <v>44648</v>
@@ -4453,7 +4426,7 @@
         <v>43800</v>
       </c>
       <c r="AU5" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AV5" s="93"/>
       <c r="AW5" s="7">
@@ -4464,7 +4437,7 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="81">
         <v>6687</v>
@@ -4473,46 +4446,46 @@
         <v>43950</v>
       </c>
       <c r="D6" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="F6" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="84" t="s">
-        <v>146</v>
-      </c>
       <c r="G6" s="84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="85">
         <v>0.96</v>
       </c>
       <c r="J6" s="84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K6" s="86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M6" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N6" s="89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O6" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P6" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R6" s="91" t="s">
         <v>31</v>
@@ -4521,10 +4494,10 @@
         <v>32</v>
       </c>
       <c r="T6" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" s="91" t="s">
         <v>147</v>
-      </c>
-      <c r="U6" s="91" t="s">
-        <v>148</v>
       </c>
       <c r="V6" s="91" t="s">
         <v>34</v>
@@ -4533,7 +4506,7 @@
         <v>34</v>
       </c>
       <c r="X6" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y6" s="90">
         <v>215301</v>
@@ -4542,58 +4515,58 @@
         <v>737604</v>
       </c>
       <c r="AA6" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB6" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AB6" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="AC6" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD6" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE6" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF6" s="92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG6" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH6" s="93">
         <v>43313</v>
       </c>
       <c r="AI6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AN6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO6" s="93">
         <v>43552</v>
       </c>
       <c r="AP6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS6" s="93">
         <v>44648</v>
@@ -4602,7 +4575,7 @@
         <v>43800</v>
       </c>
       <c r="AU6" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AV6" s="93"/>
       <c r="AW6" s="7">
@@ -4611,355 +4584,61 @@
       <c r="AX6" s="17"/>
       <c r="AY6" s="44"/>
     </row>
-    <row r="7" spans="1:55">
-      <c r="A7" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="81">
-        <v>6171</v>
-      </c>
-      <c r="C7" s="82">
-        <v>43950</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="85">
-        <v>-10</v>
-      </c>
-      <c r="J7" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q7" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="U7" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="V7" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y7" s="90">
-        <v>344564</v>
-      </c>
-      <c r="Z7" s="90">
-        <v>732870</v>
-      </c>
-      <c r="AA7" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB7" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC7" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD7" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE7" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF7" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG7" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH7" s="93">
-        <v>42726</v>
-      </c>
-      <c r="AI7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO7" s="93">
-        <v>42815</v>
-      </c>
-      <c r="AP7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS7" s="93">
-        <v>43911</v>
-      </c>
-      <c r="AT7" s="93">
-        <v>43420</v>
-      </c>
-      <c r="AU7" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AX7" s="17"/>
+    <row r="7" spans="1:55" ht="15" thickBot="1"/>
+    <row r="8" spans="1:55">
+      <c r="A8" s="45"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
     </row>
-    <row r="8" spans="1:55">
-      <c r="A8" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="81">
-        <v>6171</v>
-      </c>
-      <c r="C8" s="82">
-        <v>43950</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="85">
-        <v>10.5</v>
-      </c>
-      <c r="J8" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="N8" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="U8" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="V8" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y8" s="90">
-        <v>344564</v>
-      </c>
-      <c r="Z8" s="90">
-        <v>732870</v>
-      </c>
-      <c r="AA8" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB8" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC8" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD8" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE8" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF8" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG8" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH8" s="93">
-        <v>42726</v>
-      </c>
-      <c r="AI8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO8" s="93">
-        <v>42815</v>
-      </c>
-      <c r="AP8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS8" s="93">
-        <v>43911</v>
-      </c>
-      <c r="AT8" s="93">
-        <v>43420</v>
-      </c>
-      <c r="AU8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="17"/>
-    </row>
-    <row r="9" spans="1:55" ht="15" thickBot="1"/>
-    <row r="10" spans="1:55">
-      <c r="A10" s="45"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-    </row>
+    <row r="9" spans="1:55"/>
+    <row r="10" spans="1:55"/>
     <row r="11" spans="1:55"/>
     <row r="12" spans="1:55"/>
     <row r="13" spans="1:55"/>
@@ -10646,11 +10325,11 @@
     <row r="5694"/>
     <row r="5695"/>
     <row r="5696"/>
+    <row r="5697"/>
     <row r="5698"/>
     <row r="5699"/>
-    <row r="5700"/>
-    <row r="5701"/>
-    <row r="5704"/>
+    <row r="5702"/>
+    <row r="5703"/>
     <row r="5705"/>
   </sheetData>
   <autoFilter ref="A1:AU3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>

--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\Corrections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\Corrections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D5DDC-7E1A-43AA-A123-8C3FFDCD0F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EF6DC-9887-4F21-9E23-6771BD089D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1550" windowWidth="28700" windowHeight="15380" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -19,19 +19,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">REPD!$A$1:$AU$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -825,7 +816,7 @@
     <t>Heat Network Ref</t>
   </si>
   <si>
-    <t>Ref</t>
+    <t>Ref ID</t>
   </si>
 </sst>
 </file>
@@ -1752,13 +1743,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="71">
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="19" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1771,25 +1759,13 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="22" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="23" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="24" xfId="0" applyBorder="1">
@@ -1801,88 +1777,64 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="26" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="4" applyBorder="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="52" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="52">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="52" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="52" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="52" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="52" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="52" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="52" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="17" xfId="53" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="17" xfId="53" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="17" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="53" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1">
@@ -1900,99 +1852,51 @@
     <xf numFmtId="3" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="21" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="21" borderId="16" xfId="25" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="21" borderId="7" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="4" fontId="20" fillId="21" borderId="7" xfId="51" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="21" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="21" borderId="16" xfId="25" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="21" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="7" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="2" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2035,7 +1939,10 @@
     <xf numFmtId="14" fontId="22" fillId="2" borderId="16" xfId="25" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="21" borderId="16" xfId="25" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="25" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="33" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2491,1122 +2398,997 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="2.7265625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="45.7265625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="70" style="16" customWidth="1"/>
-    <col min="6" max="7" width="2.7265625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="16" hidden="1"/>
+    <col min="1" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" thickBot="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5">
-      <c r="A2" s="17"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" thickTop="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="31" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4"/>
+      <c r="D5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="105.75" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="95" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="D15" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" thickBot="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9" t="s">
+      <c r="E15" s="68"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="20" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="21" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="D21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="29">
-      <c r="A22" s="17"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="22" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4"/>
+      <c r="D22" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5">
-      <c r="A23" s="17"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="22" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="4"/>
+      <c r="D23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5">
-      <c r="A24" s="17"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="22" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4"/>
+      <c r="D24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5">
-      <c r="A25" s="17"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="22" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5">
-      <c r="A26" s="17"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="22" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4"/>
+      <c r="D26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="14.5">
-      <c r="A27" s="24"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="23" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4"/>
+      <c r="D27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="17">
-      <c r="A28" s="17"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="22" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5">
+      <c r="A28" s="11"/>
+      <c r="B28" s="4"/>
+      <c r="D28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5">
-      <c r="A29" s="17"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="22" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4"/>
+      <c r="D29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="22" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4"/>
+      <c r="D30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="29">
-      <c r="A31" s="17"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="22" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4"/>
+      <c r="D31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="22" t="s">
+      <c r="F31" s="6"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="4"/>
+      <c r="D32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="22" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4"/>
+      <c r="D33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.5">
-      <c r="A35" s="17"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="20" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="B34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.5">
-      <c r="A36" s="17"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="21" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="4"/>
+      <c r="D37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="29">
-      <c r="A38" s="17"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="25" t="s">
+      <c r="F37" s="6"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="11"/>
+      <c r="B38" s="4"/>
+      <c r="D38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="29">
-      <c r="A39" s="17"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="29" t="s">
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="11"/>
+      <c r="B39" s="4"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="29">
-      <c r="A40" s="17"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="29" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="11"/>
+      <c r="B40" s="4"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="29" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="11"/>
+      <c r="B41" s="4"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="29" t="s">
+      <c r="F41" s="6"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="11"/>
+      <c r="B42" s="4"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="29">
-      <c r="A43" s="17"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="29" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" ht="29">
-      <c r="A44" s="17"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="29" t="s">
+      <c r="F43" s="6"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="11"/>
+      <c r="B44" s="4"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="29">
-      <c r="A45" s="17"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="29" t="s">
+      <c r="F44" s="6"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" ht="29">
-      <c r="A46" s="17"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="29" t="s">
+      <c r="F45" s="6"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="11"/>
+      <c r="B46" s="4"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="43.5">
-      <c r="A47" s="17"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="28" t="s">
+      <c r="F46" s="6"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" ht="45">
+      <c r="A47" s="11"/>
+      <c r="B47" s="4"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="29">
-      <c r="A48" s="17"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="29" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="11"/>
+      <c r="B48" s="4"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="29">
-      <c r="A49" s="17"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="29" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="11"/>
+      <c r="B49" s="4"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="29" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11"/>
+      <c r="B50" s="4"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.5">
-      <c r="A51" s="17"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="29" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="11"/>
+      <c r="B51" s="4"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="29">
-      <c r="A52" s="17"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="29" t="s">
+      <c r="F51" s="6"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="11"/>
+      <c r="B52" s="4"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.5">
-      <c r="A53" s="17"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="29" t="s">
+      <c r="F52" s="6"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="11"/>
+      <c r="B53" s="4"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" ht="101.5">
-      <c r="A54" s="17"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="32" t="s">
+      <c r="F53" s="6"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="105">
+      <c r="A54" s="11"/>
+      <c r="B54" s="4"/>
+      <c r="D54" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.5">
-      <c r="A55" s="17"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.5">
-      <c r="A56" s="17"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="20" t="s">
+      <c r="F54" s="6"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="11"/>
+      <c r="B55" s="4"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="11"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.5">
-      <c r="A57" s="17"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.5">
-      <c r="A58" s="17"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="21" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11"/>
+      <c r="B57" s="4"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="11"/>
+      <c r="B58" s="4"/>
+      <c r="D58" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.5">
-      <c r="A59" s="17"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="22" t="s">
+      <c r="F58" s="6"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11"/>
+      <c r="B59" s="4"/>
+      <c r="D59" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.5">
-      <c r="A60" s="17"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="22" t="s">
+      <c r="F59" s="6"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="11"/>
+      <c r="B60" s="4"/>
+      <c r="D60" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.5">
-      <c r="A61" s="17"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="22" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11"/>
+      <c r="B61" s="4"/>
+      <c r="D61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.5">
-      <c r="A62" s="17"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="22" t="s">
+      <c r="F61" s="6"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="11"/>
+      <c r="B62" s="4"/>
+      <c r="D62" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.5">
-      <c r="A63" s="17"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="22" t="s">
+      <c r="F62" s="6"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="11"/>
+      <c r="B63" s="4"/>
+      <c r="D63" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.5">
-      <c r="A64" s="17"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="22" t="s">
+      <c r="F63" s="6"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="11"/>
+      <c r="B64" s="4"/>
+      <c r="D64" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.5">
-      <c r="A65" s="17"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="22" t="s">
+      <c r="F64" s="6"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="11"/>
+      <c r="B65" s="4"/>
+      <c r="D65" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="98"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.5">
-      <c r="A66" s="17"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.5">
-      <c r="A67" s="17"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="20" t="s">
+      <c r="E65" s="70"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="11"/>
+      <c r="B66" s="4"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="11"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.5">
-      <c r="A68" s="17"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.5">
-      <c r="A69" s="17"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="21" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="11"/>
+      <c r="B68" s="4"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="11"/>
+      <c r="B69" s="4"/>
+      <c r="D69" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.5">
-      <c r="A70" s="17"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="22" t="s">
+      <c r="F69" s="6"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="11"/>
+      <c r="B70" s="4"/>
+      <c r="D70" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" ht="14.5">
-      <c r="A71" s="17"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="22" t="s">
+      <c r="F70" s="6"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="11"/>
+      <c r="B71" s="4"/>
+      <c r="D71" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" ht="14.5">
-      <c r="A72" s="17"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="22" t="s">
+      <c r="F71" s="6"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="11"/>
+      <c r="B72" s="4"/>
+      <c r="D72" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" ht="14.5">
-      <c r="A73" s="17"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="22" t="s">
+      <c r="F72" s="6"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="11"/>
+      <c r="B73" s="4"/>
+      <c r="D73" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" ht="29">
-      <c r="A74" s="17"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="22" t="s">
+      <c r="F73" s="6"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" ht="30">
+      <c r="A74" s="11"/>
+      <c r="B74" s="4"/>
+      <c r="D74" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" spans="1:7" ht="29">
-      <c r="A75" s="17"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="22" t="s">
+      <c r="F74" s="6"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" ht="30">
+      <c r="A75" s="11"/>
+      <c r="B75" s="4"/>
+      <c r="D75" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" spans="1:7" ht="14.5">
-      <c r="A76" s="17"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="22" t="s">
+      <c r="F75" s="6"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="11"/>
+      <c r="B76" s="4"/>
+      <c r="D76" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="17"/>
-    </row>
-    <row r="77" spans="1:7" ht="14.5">
-      <c r="A77" s="17"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" ht="14.5">
-      <c r="A78" s="17"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="20" t="s">
+      <c r="F76" s="6"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="11"/>
+      <c r="B77" s="4"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="11"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="17"/>
-    </row>
-    <row r="79" spans="1:7" ht="14.5">
-      <c r="A79" s="17"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80" spans="1:7" ht="14.5">
-      <c r="A80" s="17"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="21" t="s">
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="11"/>
+      <c r="B79" s="4"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="11"/>
+      <c r="B80" s="4"/>
+      <c r="D80" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="17"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.5">
-      <c r="A81" s="17"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="22" t="s">
+      <c r="F80" s="6"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="11"/>
+      <c r="B81" s="4"/>
+      <c r="D81" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" ht="14.5">
-      <c r="A82" s="17"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="22" t="s">
+      <c r="F81" s="6"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="11"/>
+      <c r="B82" s="4"/>
+      <c r="D82" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.5">
-      <c r="A83" s="17"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="22" t="s">
+      <c r="F82" s="6"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="11"/>
+      <c r="B83" s="4"/>
+      <c r="D83" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84" spans="1:7" ht="14.5">
-      <c r="A84" s="17"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="22" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="11"/>
+      <c r="B84" s="4"/>
+      <c r="D84" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" ht="14.5">
-      <c r="A85" s="17"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="22" t="s">
+      <c r="F84" s="6"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="11"/>
+      <c r="B85" s="4"/>
+      <c r="D85" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="17"/>
-    </row>
-    <row r="86" spans="1:7" ht="14.5">
-      <c r="A86" s="17"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="22" t="s">
+      <c r="F85" s="6"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="11"/>
+      <c r="B86" s="4"/>
+      <c r="D86" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" spans="1:7" ht="14.5">
-      <c r="A87" s="17"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="22" t="s">
+      <c r="F86" s="6"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="11"/>
+      <c r="B87" s="4"/>
+      <c r="D87" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" spans="1:7" ht="14.5">
-      <c r="A88" s="17"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="22" t="s">
+      <c r="F87" s="6"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="11"/>
+      <c r="B88" s="4"/>
+      <c r="D88" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="17"/>
-    </row>
-    <row r="89" spans="1:7" ht="14.5">
-      <c r="A89" s="17"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="22" t="s">
+      <c r="F88" s="6"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="11"/>
+      <c r="B89" s="4"/>
+      <c r="D89" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" spans="1:7" ht="14.5">
-      <c r="A90" s="17"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="22" t="s">
+      <c r="F89" s="6"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="11"/>
+      <c r="B90" s="4"/>
+      <c r="D90" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="17"/>
-    </row>
-    <row r="91" spans="1:7" ht="14.5">
-      <c r="A91" s="17"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="22" t="s">
+      <c r="F90" s="6"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="11"/>
+      <c r="B91" s="4"/>
+      <c r="D91" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="17"/>
-    </row>
-    <row r="92" spans="1:7" ht="14.5">
-      <c r="A92" s="17"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="22" t="s">
+      <c r="F91" s="6"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="11"/>
+      <c r="B92" s="4"/>
+      <c r="D92" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="1:7" ht="14.5">
-      <c r="A93" s="17"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="22" t="s">
+      <c r="F92" s="6"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="11"/>
+      <c r="B93" s="4"/>
+      <c r="D93" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" spans="1:7" ht="14.5">
-      <c r="A94" s="17"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="22" t="s">
+      <c r="F93" s="6"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="11"/>
+      <c r="B94" s="4"/>
+      <c r="D94" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" spans="1:7" thickBot="1">
-      <c r="A95" s="17"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="1:7" ht="14.5">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" ht="14.5" hidden="1"/>
-    <row r="98" ht="14.5" hidden="1"/>
-    <row r="99" ht="14.5" hidden="1"/>
-    <row r="100" ht="14.5" hidden="1"/>
-    <row r="101" ht="14.5" hidden="1"/>
-    <row r="102" ht="14.5" hidden="1"/>
-    <row r="103" ht="14.5" hidden="1"/>
-    <row r="104" ht="14.5" hidden="1"/>
-    <row r="119" ht="14.5" hidden="1"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A95" s="11"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" hidden="1"/>
+    <row r="98" hidden="1"/>
+    <row r="99" hidden="1"/>
+    <row r="100" hidden="1"/>
+    <row r="101" hidden="1"/>
+    <row r="102" hidden="1"/>
+    <row r="103" hidden="1"/>
+    <row r="104" hidden="1"/>
+    <row r="119" hidden="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D15:E15"/>
@@ -3629,1013 +3411,1013 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD8"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="35" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="39.7265625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" style="33" customWidth="1"/>
-    <col min="7" max="8" width="23.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="33" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="33" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" style="37" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.54296875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="33" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" style="33" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="30.26953125" style="33" customWidth="1"/>
-    <col min="20" max="20" width="58.54296875" style="33" customWidth="1"/>
-    <col min="21" max="21" width="40.54296875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="20.81640625" style="33" customWidth="1"/>
-    <col min="23" max="23" width="16" style="33" customWidth="1"/>
-    <col min="24" max="24" width="11.54296875" style="33" customWidth="1"/>
-    <col min="25" max="26" width="14.1796875" style="33" customWidth="1"/>
-    <col min="27" max="27" width="58.81640625" style="33" customWidth="1"/>
-    <col min="28" max="28" width="17.54296875" style="33" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="11.7265625" style="33" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="17" style="33" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="11.7265625" style="33" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="16.7265625" style="33" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="12.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="37" max="38" width="14.1796875" style="33" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="14.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="12.54296875" style="33" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="12.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7265625" style="33" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="11.7265625" style="33" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="12" style="33" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="13.26953125" style="33" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15.453125" style="33" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="13.1796875" style="33" hidden="1" customWidth="1"/>
-    <col min="48" max="49" width="13.1796875" style="33" customWidth="1"/>
-    <col min="50" max="51" width="2.7265625" style="33" customWidth="1"/>
-    <col min="52" max="61" width="0" style="33" hidden="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.1796875" style="33" hidden="1"/>
+    <col min="1" max="1" width="10.28515625" style="25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="8" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="27" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" customWidth="1"/>
+    <col min="20" max="20" width="58.5703125" customWidth="1"/>
+    <col min="21" max="21" width="40.5703125" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="26" width="14.140625" customWidth="1"/>
+    <col min="27" max="27" width="58.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="17" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="37" max="38" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="12" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="48" max="49" width="13.140625" customWidth="1"/>
+    <col min="50" max="51" width="2.7109375" customWidth="1"/>
+    <col min="52" max="61" width="0" hidden="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="39" customFormat="1" ht="56">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:55" ht="60">
+      <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AE1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AN1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AP1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AR1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AS1" s="21" t="s">
+      <c r="AS1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AT1" s="21" t="s">
+      <c r="AT1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="21" t="s">
+      <c r="AU1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AV1" s="21" t="s">
+      <c r="AV1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="AW1" s="21" t="s">
+      <c r="AW1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="17"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="11"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="37">
         <v>3593</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="38">
         <v>40644</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="54">
+      <c r="G2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="41">
         <v>0</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="58">
+      <c r="K2" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="45">
         <v>0.6</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="46">
         <v>-6</v>
       </c>
-      <c r="P2" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="60" t="s">
+      <c r="P2" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="60" t="s">
+      <c r="T2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="60" t="s">
+      <c r="U2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="60" t="s">
+      <c r="V2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="60" t="s">
+      <c r="W2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" s="59">
+      <c r="X2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="46">
         <v>278965</v>
       </c>
-      <c r="Z2" s="59">
+      <c r="Z2" s="46">
         <v>630750</v>
       </c>
-      <c r="AA2" s="60" t="s">
+      <c r="AA2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD2" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE2" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF2" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG2" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="62">
+      <c r="AB2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="49">
         <v>34467</v>
       </c>
-      <c r="AI2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO2" s="62">
+      <c r="AI2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO2" s="49">
         <v>34640</v>
       </c>
-      <c r="AP2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU2" s="62">
+      <c r="AP2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU2" s="49">
         <v>35004</v>
       </c>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="79">
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="65">
         <v>-1</v>
       </c>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="52">
         <v>3301</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="53">
         <v>40644</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="69">
+      <c r="G3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="56">
         <v>0</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="73">
+      <c r="K3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="60">
         <v>0.6</v>
       </c>
-      <c r="O3" s="74">
+      <c r="O3" s="61">
         <v>-7</v>
       </c>
-      <c r="P3" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="75" t="s">
+      <c r="P3" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y3" s="74">
+      <c r="X3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y3" s="61">
         <v>278980</v>
       </c>
-      <c r="Z3" s="74">
+      <c r="Z3" s="61">
         <v>630740</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC3" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF3" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG3" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH3" s="77">
+      <c r="AB3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD3" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG3" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH3" s="64">
         <v>34467</v>
       </c>
-      <c r="AI3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO3" s="77">
+      <c r="AI3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO3" s="64">
         <v>34640</v>
       </c>
-      <c r="AP3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT3" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU3" s="77">
+      <c r="AP3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU3" s="64">
         <v>35004</v>
       </c>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="78">
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="6">
         <v>0</v>
       </c>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-    </row>
-    <row r="4" spans="1:55" ht="15" thickBot="1">
-      <c r="A4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="65">
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+    </row>
+    <row r="4" spans="1:55" ht="15.75" thickBot="1">
+      <c r="A4" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="52">
         <v>6665</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="53">
         <v>43641</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="69">
+      <c r="G4" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="56">
         <v>-180</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" s="73">
+      <c r="K4" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="60">
         <v>5.6</v>
       </c>
-      <c r="O4" s="74">
+      <c r="O4" s="61">
         <v>-42</v>
       </c>
-      <c r="P4" s="74">
+      <c r="P4" s="61">
         <v>180</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="75" t="s">
+      <c r="T4" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y4" s="74">
+      <c r="X4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y4" s="61">
         <v>142695</v>
       </c>
-      <c r="Z4" s="74">
+      <c r="Z4" s="61">
         <v>934003</v>
       </c>
-      <c r="AA4" s="75" t="s">
+      <c r="AA4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AC4" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD4" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE4" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF4" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG4" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH4" s="77">
+      <c r="AC4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD4" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG4" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH4" s="64">
         <v>43607</v>
       </c>
-      <c r="AI4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="78">
+      <c r="AI4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="6">
         <v>0</v>
       </c>
-      <c r="AX4" s="17"/>
-    </row>
-    <row r="5" spans="1:55" ht="15" thickBot="1">
-      <c r="A5" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="81">
+      <c r="AX4" s="11"/>
+    </row>
+    <row r="5" spans="1:55" ht="15.75" thickBot="1">
+      <c r="A5" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="52">
         <v>6687</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="53">
         <v>43950</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="85">
+      <c r="G5" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="56">
         <v>-0.96</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="J5" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" s="89" t="s">
+      <c r="K5" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="90" t="s">
+      <c r="O5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="P5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="91" t="s">
+      <c r="Q5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R5" s="91" t="s">
+      <c r="R5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="91" t="s">
+      <c r="S5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="91" t="s">
+      <c r="T5" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="U5" s="91" t="s">
+      <c r="U5" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="91" t="s">
+      <c r="V5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="91" t="s">
+      <c r="W5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="92" t="s">
+      <c r="X5" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="Y5" s="90">
+      <c r="Y5" s="61">
         <v>215301</v>
       </c>
-      <c r="Z5" s="90">
+      <c r="Z5" s="61">
         <v>737604</v>
       </c>
-      <c r="AA5" s="91" t="s">
+      <c r="AA5" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AB5" s="92" t="s">
+      <c r="AB5" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="AC5" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD5" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE5" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF5" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG5" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH5" s="93">
+      <c r="AC5" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD5" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE5" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF5" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG5" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" s="64">
         <v>43313</v>
       </c>
-      <c r="AI5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO5" s="93">
+      <c r="AI5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO5" s="64">
         <v>43552</v>
       </c>
-      <c r="AP5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS5" s="93">
+      <c r="AP5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS5" s="64">
         <v>44648</v>
       </c>
-      <c r="AT5" s="93">
+      <c r="AT5" s="64">
         <v>43800</v>
       </c>
-      <c r="AU5" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV5" s="93"/>
-      <c r="AW5" s="7">
+      <c r="AU5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="6">
         <v>-1</v>
       </c>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="44"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="31"/>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="81">
+      <c r="A6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="52">
         <v>6687</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="53">
         <v>43950</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="85">
+      <c r="G6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="56">
         <v>0.96</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="89" t="s">
+      <c r="K6" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="O6" s="90" t="s">
+      <c r="O6" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="90" t="s">
+      <c r="P6" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="91" t="s">
+      <c r="Q6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R6" s="91" t="s">
+      <c r="R6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="91" t="s">
+      <c r="S6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="91" t="s">
+      <c r="T6" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="V6" s="91" t="s">
+      <c r="V6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="91" t="s">
+      <c r="W6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="92" t="s">
+      <c r="X6" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="Y6" s="90">
+      <c r="Y6" s="61">
         <v>215301</v>
       </c>
-      <c r="Z6" s="90">
+      <c r="Z6" s="61">
         <v>737604</v>
       </c>
-      <c r="AA6" s="91" t="s">
+      <c r="AA6" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AB6" s="92" t="s">
+      <c r="AB6" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="AC6" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD6" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE6" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF6" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG6" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH6" s="93">
+      <c r="AC6" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD6" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE6" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF6" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG6" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" s="64">
         <v>43313</v>
       </c>
-      <c r="AI6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO6" s="93">
+      <c r="AI6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO6" s="64">
         <v>43552</v>
       </c>
-      <c r="AP6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS6" s="93">
+      <c r="AP6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="64">
         <v>44648</v>
       </c>
-      <c r="AT6" s="93">
+      <c r="AT6" s="64">
         <v>43800</v>
       </c>
-      <c r="AU6" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV6" s="93"/>
-      <c r="AW6" s="7">
+      <c r="AU6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="6">
         <v>1</v>
       </c>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="44"/>
-    </row>
-    <row r="7" spans="1:55" ht="15" thickBot="1"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="31"/>
+    </row>
+    <row r="7" spans="1:55" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:55">
-      <c r="A8" s="45"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="31"/>
+      <c r="AW8" s="31"/>
+      <c r="AX8" s="31"/>
     </row>
     <row r="9" spans="1:55"/>
     <row r="10" spans="1:55"/>

--- a/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
+++ b/Data Sources/REPD (Operational Corrections)/Corrections/Corrections.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\REPD (Operational Corrections)\Corrections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54EF6DC-9887-4F21-9E23-6771BD089D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86586D34-BD78-4F91-9C77-D71F1AD0F68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
     <sheet name="REPD" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">REPD!$A$1:$AU$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">REPD!$A$1:$AY$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="157">
   <si>
     <t>General Facility Details</t>
   </si>
@@ -817,6 +817,18 @@
   </si>
   <si>
     <t>Ref ID</t>
+  </si>
+  <si>
+    <t>Share Community Scheme</t>
+  </si>
+  <si>
+    <t>CfD Allocation Round</t>
+  </si>
+  <si>
+    <t>Are they re-applying (New REPD Ref)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are they re-applying (Old REPD Ref) </t>
   </si>
 </sst>
 </file>
@@ -3405,65 +3417,61 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:BI5705"/>
+  <dimension ref="A1:BN5705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="25" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="8" width="23.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="27" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="30.28515625" customWidth="1"/>
-    <col min="20" max="20" width="58.5703125" customWidth="1"/>
-    <col min="21" max="21" width="40.5703125" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="26" width="14.140625" customWidth="1"/>
-    <col min="27" max="27" width="58.85546875" customWidth="1"/>
-    <col min="28" max="28" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="17" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="37" max="38" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="12" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="48" max="49" width="13.140625" customWidth="1"/>
-    <col min="50" max="51" width="2.7109375" customWidth="1"/>
-    <col min="52" max="61" width="0" hidden="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" hidden="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="27" customWidth="1"/>
+    <col min="17" max="18" width="12.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="23" width="30.28515625" customWidth="1"/>
+    <col min="24" max="24" width="58.5703125" customWidth="1"/>
+    <col min="25" max="25" width="40.5703125" customWidth="1"/>
+    <col min="26" max="26" width="20.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" customWidth="1"/>
+    <col min="29" max="30" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="58.85546875" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" customWidth="1"/>
+    <col min="33" max="34" width="11.7109375" customWidth="1"/>
+    <col min="35" max="35" width="17" customWidth="1"/>
+    <col min="36" max="37" width="11.7109375" customWidth="1"/>
+    <col min="38" max="39" width="16.7109375" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" customWidth="1"/>
+    <col min="41" max="42" width="14.140625" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" customWidth="1"/>
+    <col min="44" max="44" width="12.5703125" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" customWidth="1"/>
+    <col min="47" max="47" width="11.7109375" customWidth="1"/>
+    <col min="48" max="48" width="12" customWidth="1"/>
+    <col min="49" max="49" width="13.28515625" customWidth="1"/>
+    <col min="50" max="50" width="15.42578125" customWidth="1"/>
+    <col min="51" max="53" width="13.140625" customWidth="1"/>
+    <col min="54" max="55" width="2.7109375" customWidth="1"/>
+    <col min="56" max="65" width="0" hidden="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="60">
+    <row r="1" spans="1:59" ht="60">
       <c r="A1" s="15" t="s">
         <v>73</v>
       </c>
@@ -3492,129 +3500,141 @@
         <v>128</v>
       </c>
       <c r="J1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="V1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AM1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AY1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="BA1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="11"/>
-    </row>
-    <row r="2" spans="1:55" ht="15" customHeight="1">
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="11"/>
+    </row>
+    <row r="2" spans="1:59" ht="15" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>91</v>
       </c>
@@ -3642,132 +3662,136 @@
       <c r="I2" s="41">
         <v>0</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="45">
+      <c r="L2" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45">
         <v>0.6</v>
       </c>
-      <c r="O2" s="46">
+      <c r="Q2" s="46">
         <v>-6</v>
       </c>
-      <c r="P2" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="47" t="s">
+      <c r="R2" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="T2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="U2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="Y2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="47" t="s">
+      <c r="Z2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="AA2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" s="46">
+      <c r="AB2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2" s="46">
         <v>278965</v>
       </c>
-      <c r="Z2" s="46">
+      <c r="AD2" s="46">
         <v>630750</v>
       </c>
-      <c r="AA2" s="47" t="s">
+      <c r="AE2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD2" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE2" s="48" t="s">
-        <v>113</v>
-      </c>
       <c r="AF2" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="AG2" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH2" s="49">
+      <c r="AG2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ2" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="49">
         <v>34467</v>
       </c>
-      <c r="AI2" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ2" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK2" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL2" s="49" t="s">
-        <v>113</v>
-      </c>
       <c r="AM2" s="49" t="s">
         <v>113</v>
       </c>
       <c r="AN2" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AO2" s="49">
+      <c r="AO2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS2" s="49">
         <v>34640</v>
       </c>
-      <c r="AP2" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ2" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR2" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS2" s="49" t="s">
-        <v>113</v>
-      </c>
       <c r="AT2" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AU2" s="49">
+      <c r="AU2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY2" s="49">
         <v>35004</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="65">
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="65">
         <v>-1</v>
       </c>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-    </row>
-    <row r="3" spans="1:55" ht="15" customHeight="1">
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+    </row>
+    <row r="3" spans="1:59" ht="15" customHeight="1">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -3795,132 +3819,136 @@
       <c r="I3" s="56">
         <v>0</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="60">
+      <c r="L3" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60">
         <v>0.6</v>
       </c>
-      <c r="O3" s="61">
+      <c r="Q3" s="61">
         <v>-7</v>
       </c>
-      <c r="P3" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="62" t="s">
+      <c r="R3" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="S3" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="T3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="U3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="62" t="s">
+      <c r="Y3" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="Z3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="62" t="s">
+      <c r="AA3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y3" s="61">
+      <c r="AB3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC3" s="61">
         <v>278980</v>
       </c>
-      <c r="Z3" s="61">
+      <c r="AD3" s="61">
         <v>630740</v>
       </c>
-      <c r="AA3" s="62" t="s">
+      <c r="AE3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC3" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" s="63" t="s">
-        <v>113</v>
-      </c>
       <c r="AF3" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="AG3" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH3" s="64">
+      <c r="AG3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH3" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3" s="64">
         <v>34467</v>
       </c>
-      <c r="AI3" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK3" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" s="64" t="s">
-        <v>113</v>
-      </c>
       <c r="AM3" s="64" t="s">
         <v>113</v>
       </c>
       <c r="AN3" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="AO3" s="64">
+      <c r="AO3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS3" s="64">
         <v>34640</v>
       </c>
-      <c r="AP3" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ3" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS3" s="64" t="s">
-        <v>113</v>
-      </c>
       <c r="AT3" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="AU3" s="64">
+      <c r="AU3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX3" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY3" s="64">
         <v>35004</v>
       </c>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="6">
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="6">
         <v>0</v>
       </c>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-    </row>
-    <row r="4" spans="1:55" ht="15.75" thickBot="1">
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+    </row>
+    <row r="4" spans="1:59" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>113</v>
       </c>
@@ -3948,93 +3976,85 @@
       <c r="I4" s="56">
         <v>-180</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" s="60">
+      <c r="L4" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60">
         <v>5.6</v>
       </c>
-      <c r="O4" s="61">
+      <c r="Q4" s="61">
         <v>-42</v>
       </c>
-      <c r="P4" s="61">
+      <c r="R4" s="61">
         <v>180</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="S4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="T4" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="U4" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="U4" s="62" t="s">
+      <c r="Y4" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="Z4" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="62" t="s">
+      <c r="AA4" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y4" s="61">
+      <c r="AB4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC4" s="61">
         <v>142695</v>
       </c>
-      <c r="Z4" s="61">
+      <c r="AD4" s="61">
         <v>934003</v>
       </c>
-      <c r="AA4" s="62" t="s">
+      <c r="AE4" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="63" t="s">
+      <c r="AF4" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AC4" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD4" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE4" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF4" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG4" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH4" s="64">
+      <c r="AG4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH4" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ4" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK4" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL4" s="64">
         <v>43607</v>
       </c>
-      <c r="AI4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK4" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL4" s="64" t="s">
-        <v>113</v>
-      </c>
       <c r="AM4" s="64" t="s">
         <v>113</v>
       </c>
@@ -4062,13 +4082,25 @@
       <c r="AU4" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="6">
+      <c r="AV4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="6">
         <v>0</v>
       </c>
-      <c r="AX4" s="11"/>
-    </row>
-    <row r="5" spans="1:55" ht="15.75" thickBot="1">
+      <c r="BB4" s="11"/>
+    </row>
+    <row r="5" spans="1:59" ht="15.75" thickBot="1">
       <c r="A5" s="51" t="s">
         <v>113</v>
       </c>
@@ -4096,128 +4128,132 @@
       <c r="I5" s="56">
         <v>-0.96</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" s="60" t="s">
+      <c r="L5" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="Q5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="R5" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="62" t="s">
+      <c r="S5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="T5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="62" t="s">
+      <c r="U5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="62" t="s">
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="U5" s="62" t="s">
+      <c r="Y5" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="62" t="s">
+      <c r="Z5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="AA5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="63" t="s">
+      <c r="AB5" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="Y5" s="61">
+      <c r="AC5" s="61">
         <v>215301</v>
       </c>
-      <c r="Z5" s="61">
+      <c r="AD5" s="61">
         <v>737604</v>
       </c>
-      <c r="AA5" s="62" t="s">
+      <c r="AE5" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AB5" s="63" t="s">
+      <c r="AF5" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="AC5" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD5" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE5" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF5" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG5" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH5" s="64">
+      <c r="AG5" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI5" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ5" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK5" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL5" s="64">
         <v>43313</v>
       </c>
-      <c r="AI5" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ5" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK5" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL5" s="64" t="s">
-        <v>113</v>
-      </c>
       <c r="AM5" s="64" t="s">
         <v>113</v>
       </c>
       <c r="AN5" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="AO5" s="64">
+      <c r="AO5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS5" s="64">
         <v>43552</v>
       </c>
-      <c r="AP5" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ5" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR5" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS5" s="64">
+      <c r="AT5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW5" s="64">
         <v>44648</v>
       </c>
-      <c r="AT5" s="64">
+      <c r="AX5" s="64">
         <v>43800</v>
       </c>
-      <c r="AU5" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="6">
+      <c r="AY5" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="6">
         <v>-1</v>
       </c>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="31"/>
-    </row>
-    <row r="6" spans="1:55">
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="31"/>
+    </row>
+    <row r="6" spans="1:59">
       <c r="A6" s="51" t="s">
         <v>113</v>
       </c>
@@ -4245,129 +4281,133 @@
       <c r="I6" s="56">
         <v>0.96</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="56"/>
+      <c r="K6" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="60" t="s">
+      <c r="L6" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="Q6" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="61" t="s">
+      <c r="R6" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="62" t="s">
+      <c r="S6" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R6" s="62" t="s">
+      <c r="T6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="62" t="s">
+      <c r="U6" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="62" t="s">
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="U6" s="62" t="s">
+      <c r="Y6" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="V6" s="62" t="s">
+      <c r="Z6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="62" t="s">
+      <c r="AA6" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="63" t="s">
+      <c r="AB6" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="Y6" s="61">
+      <c r="AC6" s="61">
         <v>215301</v>
       </c>
-      <c r="Z6" s="61">
+      <c r="AD6" s="61">
         <v>737604</v>
       </c>
-      <c r="AA6" s="62" t="s">
+      <c r="AE6" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="AB6" s="63" t="s">
+      <c r="AF6" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="AC6" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD6" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE6" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF6" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG6" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH6" s="64">
+      <c r="AG6" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI6" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ6" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL6" s="64">
         <v>43313</v>
       </c>
-      <c r="AI6" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ6" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK6" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL6" s="64" t="s">
-        <v>113</v>
-      </c>
       <c r="AM6" s="64" t="s">
         <v>113</v>
       </c>
       <c r="AN6" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="AO6" s="64">
+      <c r="AO6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="64">
         <v>43552</v>
       </c>
-      <c r="AP6" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ6" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR6" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS6" s="64">
+      <c r="AT6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW6" s="64">
         <v>44648</v>
       </c>
-      <c r="AT6" s="64">
+      <c r="AX6" s="64">
         <v>43800</v>
       </c>
-      <c r="AU6" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="6">
+      <c r="AY6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="6">
         <v>1</v>
       </c>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="31"/>
-    </row>
-    <row r="7" spans="1:55" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:55">
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="31"/>
+    </row>
+    <row r="7" spans="1:59" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:59">
       <c r="A8" s="32"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4377,13 +4417,13 @@
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="31"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
-      <c r="N8" s="34"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
       <c r="S8" s="31"/>
@@ -4418,15 +4458,19 @@
       <c r="AV8" s="31"/>
       <c r="AW8" s="31"/>
       <c r="AX8" s="31"/>
-    </row>
-    <row r="9" spans="1:55"/>
-    <row r="10" spans="1:55"/>
-    <row r="11" spans="1:55"/>
-    <row r="12" spans="1:55"/>
-    <row r="13" spans="1:55"/>
-    <row r="14" spans="1:55"/>
-    <row r="15" spans="1:55"/>
-    <row r="16" spans="1:55"/>
+      <c r="AY8" s="31"/>
+      <c r="AZ8" s="31"/>
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="31"/>
+    </row>
+    <row r="9" spans="1:59"/>
+    <row r="10" spans="1:59"/>
+    <row r="11" spans="1:59"/>
+    <row r="12" spans="1:59"/>
+    <row r="13" spans="1:59"/>
+    <row r="14" spans="1:59"/>
+    <row r="15" spans="1:59"/>
+    <row r="16" spans="1:59"/>
     <row r="17"/>
     <row r="18"/>
     <row r="19"/>
@@ -10114,7 +10158,7 @@
     <row r="5703"/>
     <row r="5705"/>
   </sheetData>
-  <autoFilter ref="A1:AU3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:AY3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
